--- a/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
+++ b/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE936893-886A-4EF5-AC42-49C13EA0BD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388A463B-EED8-4216-A589-221B80F86AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkConnection" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -295,7 +295,7 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>onNL_SW</v>
+            <v>onNL_W</v>
           </cell>
         </row>
         <row r="6">
@@ -650,7 +650,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>onNL_NE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -955,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343B1B1-37DC-4EB7-AD64-1154038557BC}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +984,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3571,7 +3577,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,7 +3599,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -3686,7 +3692,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -3824,7 +3830,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,7 +3852,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -3939,7 +3945,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -4075,7 +4081,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,7 +4104,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -4192,7 +4198,7 @@
       </c>
       <c r="E2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>243.21510747729999</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4309,7 +4315,7 @@
       </c>
       <c r="E3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>147.82111732788701</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4426,7 +4432,7 @@
       </c>
       <c r="E4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.91234990589899</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4527,119 +4533,119 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;B$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>243.21510747729999</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;C$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>147.82111732788701</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;D$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.912349905898</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>108.088684080319</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>50.205090619627903</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;I$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>178.52220075011698</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;J$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.627545174894</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;K$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>457.098685014571</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;L$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>532.55721040192498</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;M$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>1031.10708531146</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;N$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>637.440239529775</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;O$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.386328249652</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;P$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>162.80775113988099</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Q$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>60.515231551867501</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;R$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>68.274055110146307</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;S$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>133.52681243087798</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;T$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>128.18422819891001</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;U$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.43156261658399</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;V$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>317.71416780100799</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;W$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>322.81669985697403</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;X$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>92.603955501506292</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Y$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>97.802284849013304</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Z$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>141.95268198029601</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AA$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>140.72820914913802</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AB$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>131.558974653143</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AC$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>175.18128715311701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -4660,7 +4666,7 @@
       </c>
       <c r="E6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>108.088684080319</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4777,7 +4783,7 @@
       </c>
       <c r="E7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4894,7 +4900,7 @@
       </c>
       <c r="E8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>50.205090619627804</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5011,7 +5017,7 @@
       </c>
       <c r="E9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>178.52220075011698</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5128,7 +5134,7 @@
       </c>
       <c r="E10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.627545174894</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5245,7 +5251,7 @@
       </c>
       <c r="E11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>457.098685014571</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5362,7 +5368,7 @@
       </c>
       <c r="E12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>532.55721040192498</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5479,7 +5485,7 @@
       </c>
       <c r="E13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>1031.10708531146</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5596,7 +5602,7 @@
       </c>
       <c r="E14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>637.440239529775</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5713,7 +5719,7 @@
       </c>
       <c r="E15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.38632824965299</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5830,7 +5836,7 @@
       </c>
       <c r="E16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>162.80775113988099</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5947,7 +5953,7 @@
       </c>
       <c r="E17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>60.515231551867302</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6064,7 +6070,7 @@
       </c>
       <c r="E18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>68.274055110146392</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6181,7 +6187,7 @@
       </c>
       <c r="E19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>133.526812430879</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6298,7 +6304,7 @@
       </c>
       <c r="E20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>128.18422819891001</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6415,7 +6421,7 @@
       </c>
       <c r="E21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.431562616585</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6532,7 +6538,7 @@
       </c>
       <c r="E22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>317.71416780100697</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6649,7 +6655,7 @@
       </c>
       <c r="E23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>322.816699856973</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6766,7 +6772,7 @@
       </c>
       <c r="E24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>92.603955501506107</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6883,7 +6889,7 @@
       </c>
       <c r="E25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>97.802284849013404</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7000,7 +7006,7 @@
       </c>
       <c r="E26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>141.95268198029498</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7117,7 +7123,7 @@
       </c>
       <c r="E27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>140.72820914913802</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7234,7 +7240,7 @@
       </c>
       <c r="E28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>131.558974653143</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7351,7 +7357,7 @@
       </c>
       <c r="E29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>175.18128715311701</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7683,8 +7689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9DEE99-9BAE-4071-99FE-F967414581A4}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7706,7 +7712,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -7811,7 +7817,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">

--- a/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
+++ b/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388A463B-EED8-4216-A589-221B80F86AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE1CE2-3CCE-4B28-A43D-E3DCB58C736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkConnection" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343B1B1-37DC-4EB7-AD64-1154038557BC}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7689,8 +7689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9DEE99-9BAE-4071-99FE-F967414581A4}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
+++ b/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE1CE2-3CCE-4B28-A43D-E3DCB58C736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6020B47F-3337-4BC7-8364-50C0A5C5D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
@@ -962,7 +962,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9050,16 +9050,16 @@
         <f>_xlfn.XLOOKUP(J29,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="e">
         <f>_xlfn.XLOOKUP(K29,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C29">
         <v>191596.37753680401</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -9077,16 +9077,16 @@
         <f>_xlfn.XLOOKUP(J30,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="e">
         <f>_xlfn.XLOOKUP(K30,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C30">
         <v>333095.10230934201</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -9104,16 +9104,16 @@
         <f>_xlfn.XLOOKUP(J31,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="e">
         <f>_xlfn.XLOOKUP(K31,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C31">
         <v>156916.32279679601</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -9131,16 +9131,16 @@
         <f>_xlfn.XLOOKUP(J32,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="e">
         <f>_xlfn.XLOOKUP(K32,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C32">
         <v>189298.15485214701</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -9158,16 +9158,16 @@
         <f>_xlfn.XLOOKUP(J33,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="e">
         <f>_xlfn.XLOOKUP(K33,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C33">
         <v>162613.06945119001</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -9185,16 +9185,16 @@
         <f>_xlfn.XLOOKUP(J34,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="e">
         <f>_xlfn.XLOOKUP(K34,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C34">
         <v>103841.45168392301</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -9212,16 +9212,16 @@
         <f>_xlfn.XLOOKUP(J35,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="e">
         <f>_xlfn.XLOOKUP(K35,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C35">
         <v>311999.38816481997</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -10049,16 +10049,16 @@
         <f>_xlfn.XLOOKUP(J63,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="e">
         <f>_xlfn.XLOOKUP(K63,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C63">
         <v>137450.83092896899</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D63" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_KZ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
@@ -10076,16 +10076,16 @@
         <f>_xlfn.XLOOKUP(J64,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="e">
         <f>_xlfn.XLOOKUP(K64,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C64">
         <v>243258.959951344</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D64" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_KZ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
@@ -10103,16 +10103,16 @@
         <f>_xlfn.XLOOKUP(J65,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="e">
         <f>_xlfn.XLOOKUP(K65,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C65">
         <v>109786.090950069</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D65" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_KZ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
@@ -10130,16 +10130,16 @@
         <f>_xlfn.XLOOKUP(J66,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="e">
         <f>_xlfn.XLOOKUP(K66,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C66">
         <v>113348.878351917</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D66" t="e">
         <f t="shared" si="0"/>
-        <v>ofNL_KZ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J66" t="s">
         <v>22</v>
@@ -10157,16 +10157,16 @@
         <f>_xlfn.XLOOKUP(J67,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="e">
         <f>_xlfn.XLOOKUP(K67,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C67">
         <v>86773.299309921495</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D67" t="e">
         <f t="shared" ref="D67:D130" si="2">A67&amp;"-"&amp;B67</f>
-        <v>ofNL_KZ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
@@ -10184,16 +10184,16 @@
         <f>_xlfn.XLOOKUP(J68,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="e">
         <f>_xlfn.XLOOKUP(K68,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C68">
         <v>43293.153630168999</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D68" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_KZ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
@@ -10211,16 +10211,16 @@
         <f>_xlfn.XLOOKUP(J69,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="e">
         <f>_xlfn.XLOOKUP(K69,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C69">
         <v>220233.25555341301</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D69" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_KZ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J69" t="s">
         <v>22</v>
@@ -11048,16 +11048,16 @@
         <f>_xlfn.XLOOKUP(J97,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="e">
         <f>_xlfn.XLOOKUP(K97,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C97">
         <v>67534.577780818101</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D97" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J97" t="s">
         <v>13</v>
@@ -11075,16 +11075,16 @@
         <f>_xlfn.XLOOKUP(J98,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="e">
         <f>_xlfn.XLOOKUP(K98,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C98">
         <v>212707.61920466201</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D98" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J98" t="s">
         <v>13</v>
@@ -11102,16 +11102,16 @@
         <f>_xlfn.XLOOKUP(J99,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="e">
         <f>_xlfn.XLOOKUP(K99,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C99">
         <v>37690.713598320399</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D99" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J99" t="s">
         <v>13</v>
@@ -11129,16 +11129,16 @@
         <f>_xlfn.XLOOKUP(J100,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="e">
         <f>_xlfn.XLOOKUP(K100,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C100">
         <v>62641.5905742057</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D100" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J100" t="s">
         <v>13</v>
@@ -11156,16 +11156,16 @@
         <f>_xlfn.XLOOKUP(J101,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="e">
         <f>_xlfn.XLOOKUP(K101,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C101">
         <v>39251.457274810004</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J101" t="s">
         <v>13</v>
@@ -11183,16 +11183,16 @@
         <f>_xlfn.XLOOKUP(J102,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="e">
         <f>_xlfn.XLOOKUP(K102,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C102">
         <v>30756.8498977036</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D102" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J102" t="s">
         <v>13</v>
@@ -11210,16 +11210,16 @@
         <f>_xlfn.XLOOKUP(J103,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="e">
         <f>_xlfn.XLOOKUP(K103,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C103">
         <v>195746.11795167401</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D103" t="e">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J103" t="s">
         <v>13</v>
@@ -12047,16 +12047,16 @@
         <f>_xlfn.XLOOKUP(J131,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="e">
         <f>_xlfn.XLOOKUP(K131,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C131">
         <v>130206.78520254399</v>
       </c>
-      <c r="D131" t="str">
+      <c r="D131" t="e">
         <f t="shared" ref="D131:D194" si="4">A131&amp;"-"&amp;B131</f>
-        <v>ofNL_KZ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J131" t="s">
         <v>23</v>
@@ -12074,16 +12074,16 @@
         <f>_xlfn.XLOOKUP(J132,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="e">
         <f>_xlfn.XLOOKUP(K132,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C132">
         <v>239787.17305983001</v>
       </c>
-      <c r="D132" t="str">
+      <c r="D132" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_KZ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J132" t="s">
         <v>23</v>
@@ -12101,16 +12101,16 @@
         <f>_xlfn.XLOOKUP(J133,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="e">
         <f>_xlfn.XLOOKUP(K133,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C133">
         <v>102316.594455686</v>
       </c>
-      <c r="D133" t="str">
+      <c r="D133" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_KZ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J133" t="s">
         <v>23</v>
@@ -12128,16 +12128,16 @@
         <f>_xlfn.XLOOKUP(J134,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="e">
         <f>_xlfn.XLOOKUP(K134,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C134">
         <v>107286.79054253999</v>
       </c>
-      <c r="D134" t="str">
+      <c r="D134" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_KZ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J134" t="s">
         <v>23</v>
@@ -12155,16 +12155,16 @@
         <f>_xlfn.XLOOKUP(J135,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="e">
         <f>_xlfn.XLOOKUP(K135,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C135">
         <v>80461.330035769002</v>
       </c>
-      <c r="D135" t="str">
+      <c r="D135" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_KZ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J135" t="s">
         <v>23</v>
@@ -12182,16 +12182,16 @@
         <f>_xlfn.XLOOKUP(J136,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="e">
         <f>_xlfn.XLOOKUP(K136,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C136">
         <v>35854.475232938297</v>
       </c>
-      <c r="D136" t="str">
+      <c r="D136" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_KZ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J136" t="s">
         <v>23</v>
@@ -12209,16 +12209,16 @@
         <f>_xlfn.XLOOKUP(J137,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="e">
         <f>_xlfn.XLOOKUP(K137,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C137">
         <v>217255.39641598001</v>
       </c>
-      <c r="D137" t="str">
+      <c r="D137" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_KZ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J137" t="s">
         <v>23</v>
@@ -13046,16 +13046,16 @@
         <f>_xlfn.XLOOKUP(J165,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="e">
         <f>_xlfn.XLOOKUP(K165,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C165">
         <v>59411.4914303021</v>
       </c>
-      <c r="D165" t="str">
+      <c r="D165" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J165" t="s">
         <v>14</v>
@@ -13073,16 +13073,16 @@
         <f>_xlfn.XLOOKUP(J166,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="e">
         <f>_xlfn.XLOOKUP(K166,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C166">
         <v>200964.318601484</v>
       </c>
-      <c r="D166" t="str">
+      <c r="D166" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J166" t="s">
         <v>14</v>
@@ -13100,16 +13100,16 @@
         <f>_xlfn.XLOOKUP(J167,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="e">
         <f>_xlfn.XLOOKUP(K167,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C167">
         <v>34132.464659679601</v>
       </c>
-      <c r="D167" t="str">
+      <c r="D167" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J167" t="s">
         <v>14</v>
@@ -13127,16 +13127,16 @@
         <f>_xlfn.XLOOKUP(J168,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="e">
         <f>_xlfn.XLOOKUP(K168,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C168">
         <v>50719.675995306497</v>
       </c>
-      <c r="D168" t="str">
+      <c r="D168" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J168" t="s">
         <v>14</v>
@@ -13154,16 +13154,16 @@
         <f>_xlfn.XLOOKUP(J169,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="e">
         <f>_xlfn.XLOOKUP(K169,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C169">
         <v>28184.0204512852</v>
       </c>
-      <c r="D169" t="str">
+      <c r="D169" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J169" t="s">
         <v>14</v>
@@ -13181,16 +13181,16 @@
         <f>_xlfn.XLOOKUP(J170,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="e">
         <f>_xlfn.XLOOKUP(K170,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C170">
         <v>39760.463201143502</v>
       </c>
-      <c r="D170" t="str">
+      <c r="D170" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J170" t="s">
         <v>14</v>
@@ -13208,16 +13208,16 @@
         <f>_xlfn.XLOOKUP(J171,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="e">
         <f>_xlfn.XLOOKUP(K171,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C171">
         <v>184322.533207261</v>
       </c>
-      <c r="D171" t="str">
+      <c r="D171" t="e">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J171" t="s">
         <v>14</v>
@@ -14072,16 +14072,16 @@
         <f>_xlfn.XLOOKUP(J200,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="e">
         <f>_xlfn.XLOOKUP(K200,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C200">
         <v>335695.77826090698</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D200" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_BO_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J200" t="s">
         <v>16</v>
@@ -14099,16 +14099,16 @@
         <f>_xlfn.XLOOKUP(J201,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="e">
         <f>_xlfn.XLOOKUP(K201,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C201">
         <v>155971.577009598</v>
       </c>
-      <c r="D201" t="str">
+      <c r="D201" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_BO_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J201" t="s">
         <v>16</v>
@@ -14126,16 +14126,16 @@
         <f>_xlfn.XLOOKUP(J202,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="e">
         <f>_xlfn.XLOOKUP(K202,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C202">
         <v>190564.49999800901</v>
       </c>
-      <c r="D202" t="str">
+      <c r="D202" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_BO_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J202" t="s">
         <v>16</v>
@@ -14153,16 +14153,16 @@
         <f>_xlfn.XLOOKUP(J203,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="e">
         <f>_xlfn.XLOOKUP(K203,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C203">
         <v>164162.968454471</v>
       </c>
-      <c r="D203" t="str">
+      <c r="D203" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_BO_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J203" t="s">
         <v>16</v>
@@ -14180,16 +14180,16 @@
         <f>_xlfn.XLOOKUP(J204,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="e">
         <f>_xlfn.XLOOKUP(K204,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C204">
         <v>105620.141778031</v>
       </c>
-      <c r="D204" t="str">
+      <c r="D204" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_BO_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J204" t="s">
         <v>16</v>
@@ -14207,16 +14207,16 @@
         <f>_xlfn.XLOOKUP(J205,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="e">
         <f>_xlfn.XLOOKUP(K205,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C205">
         <v>315039.643881728</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D205" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_BO_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J205" t="s">
         <v>16</v>
@@ -15044,16 +15044,16 @@
         <f>_xlfn.XLOOKUP(J233,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="e">
         <f>_xlfn.XLOOKUP(K233,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C233">
         <v>52322.141789332301</v>
       </c>
-      <c r="D233" t="str">
+      <c r="D233" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J233" t="s">
         <v>28</v>
@@ -15071,16 +15071,16 @@
         <f>_xlfn.XLOOKUP(J234,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="e">
         <f>_xlfn.XLOOKUP(K234,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C234">
         <v>184783.79636705201</v>
       </c>
-      <c r="D234" t="str">
+      <c r="D234" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J234" t="s">
         <v>28</v>
@@ -15125,16 +15125,16 @@
         <f>_xlfn.XLOOKUP(J236,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="e">
         <f>_xlfn.XLOOKUP(K236,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C236">
         <v>34510.693526842901</v>
       </c>
-      <c r="D236" t="str">
+      <c r="D236" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J236" t="s">
         <v>28</v>
@@ -15152,16 +15152,16 @@
         <f>_xlfn.XLOOKUP(J237,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="e">
         <f>_xlfn.XLOOKUP(K237,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C237">
         <v>14151.4404002621</v>
       </c>
-      <c r="D237" t="str">
+      <c r="D237" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J237" t="s">
         <v>28</v>
@@ -15179,16 +15179,16 @@
         <f>_xlfn.XLOOKUP(J238,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="e">
         <f>_xlfn.XLOOKUP(K238,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C238">
         <v>53148.3969803211</v>
       </c>
-      <c r="D238" t="str">
+      <c r="D238" t="e">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J238" t="s">
         <v>28</v>
@@ -16043,16 +16043,16 @@
         <f>_xlfn.XLOOKUP(J267,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="e">
         <f>_xlfn.XLOOKUP(K267,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C267">
         <v>220802.75827632201</v>
       </c>
-      <c r="D267" t="str">
+      <c r="D267" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J267" t="s">
         <v>0</v>
@@ -16070,16 +16070,16 @@
         <f>_xlfn.XLOOKUP(J268,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="e">
         <f>_xlfn.XLOOKUP(K268,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C268">
         <v>333896.939035255</v>
       </c>
-      <c r="D268" t="str">
+      <c r="D268" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J268" t="s">
         <v>0</v>
@@ -16097,16 +16097,16 @@
         <f>_xlfn.XLOOKUP(J269,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="e">
         <f>_xlfn.XLOOKUP(K269,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C269">
         <v>188323.239009877</v>
       </c>
-      <c r="D269" t="str">
+      <c r="D269" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J269" t="s">
         <v>0</v>
@@ -16124,16 +16124,16 @@
         <f>_xlfn.XLOOKUP(J270,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="e">
         <f>_xlfn.XLOOKUP(K270,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C270">
         <v>204673.75818960599</v>
       </c>
-      <c r="D270" t="str">
+      <c r="D270" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J270" t="s">
         <v>0</v>
@@ -16178,16 +16178,16 @@
         <f>_xlfn.XLOOKUP(J272,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="e">
         <f>_xlfn.XLOOKUP(K272,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C272">
         <v>123066.493839898</v>
       </c>
-      <c r="D272" t="str">
+      <c r="D272" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J272" t="s">
         <v>0</v>
@@ -16205,16 +16205,16 @@
         <f>_xlfn.XLOOKUP(J273,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="e">
         <f>_xlfn.XLOOKUP(K273,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C273">
         <v>309644.99731561099</v>
       </c>
-      <c r="D273" t="str">
+      <c r="D273" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J273" t="s">
         <v>0</v>
@@ -17042,16 +17042,16 @@
         <f>_xlfn.XLOOKUP(J301,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="e">
         <f>_xlfn.XLOOKUP(K301,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C301">
         <v>252510.93945462501</v>
       </c>
-      <c r="D301" t="str">
+      <c r="D301" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_CE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J301" t="s">
         <v>1</v>
@@ -17069,16 +17069,16 @@
         <f>_xlfn.XLOOKUP(J302,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="e">
         <f>_xlfn.XLOOKUP(K302,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C302">
         <v>302450.30868035799</v>
       </c>
-      <c r="D302" t="str">
+      <c r="D302" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_CE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J302" t="s">
         <v>1</v>
@@ -17123,16 +17123,16 @@
         <f>_xlfn.XLOOKUP(J304,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="e">
         <f>_xlfn.XLOOKUP(K304,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C304">
         <v>216168.19040934701</v>
       </c>
-      <c r="D304" t="str">
+      <c r="D304" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_CE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J304" t="s">
         <v>1</v>
@@ -17150,16 +17150,16 @@
         <f>_xlfn.XLOOKUP(J305,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="e">
         <f>_xlfn.XLOOKUP(K305,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C305">
         <v>194557.83134064899</v>
       </c>
-      <c r="D305" t="str">
+      <c r="D305" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_CE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J305" t="s">
         <v>1</v>
@@ -17177,16 +17177,16 @@
         <f>_xlfn.XLOOKUP(J306,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="e">
         <f>_xlfn.XLOOKUP(K306,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C306">
         <v>164640.164209407</v>
       </c>
-      <c r="D306" t="str">
+      <c r="D306" t="e">
         <f t="shared" si="8"/>
-        <v>onNL_CE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J306" t="s">
         <v>1</v>
@@ -18068,16 +18068,16 @@
         <f>_xlfn.XLOOKUP(J336,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B336">
+      <c r="B336" t="e">
         <f>_xlfn.XLOOKUP(K336,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C336">
         <v>408852.69484884501</v>
       </c>
-      <c r="D336" t="str">
+      <c r="D336" t="e">
         <f t="shared" si="10"/>
-        <v>onBE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J336" t="s">
         <v>2</v>
@@ -18095,16 +18095,16 @@
         <f>_xlfn.XLOOKUP(J337,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="e">
         <f>_xlfn.XLOOKUP(K337,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C337">
         <v>292354.765399814</v>
       </c>
-      <c r="D337" t="str">
+      <c r="D337" t="e">
         <f t="shared" si="10"/>
-        <v>onBE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J337" t="s">
         <v>2</v>
@@ -18122,16 +18122,16 @@
         <f>_xlfn.XLOOKUP(J338,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="e">
         <f>_xlfn.XLOOKUP(K338,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C338">
         <v>299262.23658306198</v>
       </c>
-      <c r="D338" t="str">
+      <c r="D338" t="e">
         <f t="shared" si="10"/>
-        <v>onBE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J338" t="s">
         <v>2</v>
@@ -18176,16 +18176,16 @@
         <f>_xlfn.XLOOKUP(J340,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="e">
         <f>_xlfn.XLOOKUP(K340,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C340">
         <v>225024.29218901301</v>
       </c>
-      <c r="D340" t="str">
+      <c r="D340" t="e">
         <f t="shared" si="10"/>
-        <v>onBE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J340" t="s">
         <v>2</v>
@@ -18203,16 +18203,16 @@
         <f>_xlfn.XLOOKUP(J341,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="e">
         <f>_xlfn.XLOOKUP(K341,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C341">
         <v>381999.37566355901</v>
       </c>
-      <c r="D341" t="str">
+      <c r="D341" t="e">
         <f t="shared" si="10"/>
-        <v>onBE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J341" t="s">
         <v>2</v>
@@ -19040,16 +19040,16 @@
         <f>_xlfn.XLOOKUP(J369,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B369">
+      <c r="B369" t="e">
         <f>_xlfn.XLOOKUP(K369,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C369">
         <v>552077.61776594399</v>
       </c>
-      <c r="D369" t="str">
+      <c r="D369" t="e">
         <f t="shared" si="10"/>
-        <v>onDE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J369" t="s">
         <v>3</v>
@@ -19067,16 +19067,16 @@
         <f>_xlfn.XLOOKUP(J370,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B370">
+      <c r="B370" t="e">
         <f>_xlfn.XLOOKUP(K370,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C370">
         <v>483156.61882409599</v>
       </c>
-      <c r="D370" t="str">
+      <c r="D370" t="e">
         <f t="shared" si="10"/>
-        <v>onDE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J370" t="s">
         <v>3</v>
@@ -19094,16 +19094,16 @@
         <f>_xlfn.XLOOKUP(J371,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B371">
+      <c r="B371" t="e">
         <f>_xlfn.XLOOKUP(K371,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C371">
         <v>542959.31366750901</v>
       </c>
-      <c r="D371" t="str">
+      <c r="D371" t="e">
         <f t="shared" si="10"/>
-        <v>onDE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J371" t="s">
         <v>3</v>
@@ -19121,16 +19121,16 @@
         <f>_xlfn.XLOOKUP(J372,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B372">
+      <c r="B372" t="e">
         <f>_xlfn.XLOOKUP(K372,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C372">
         <v>502776.439987569</v>
       </c>
-      <c r="D372" t="str">
+      <c r="D372" t="e">
         <f t="shared" si="10"/>
-        <v>onDE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J372" t="s">
         <v>3</v>
@@ -19148,16 +19148,16 @@
         <f>_xlfn.XLOOKUP(J373,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B373">
+      <c r="B373" t="e">
         <f>_xlfn.XLOOKUP(K373,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C373">
         <v>494651.46440569498</v>
       </c>
-      <c r="D373" t="str">
+      <c r="D373" t="e">
         <f t="shared" si="10"/>
-        <v>onDE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J373" t="s">
         <v>3</v>
@@ -19175,16 +19175,16 @@
         <f>_xlfn.XLOOKUP(J374,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B374">
+      <c r="B374" t="e">
         <f>_xlfn.XLOOKUP(K374,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C374">
         <v>493784.209868245</v>
       </c>
-      <c r="D374" t="str">
+      <c r="D374" t="e">
         <f t="shared" si="10"/>
-        <v>onDE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J374" t="s">
         <v>3</v>
@@ -20039,16 +20039,16 @@
         <f>_xlfn.XLOOKUP(J403,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B403">
+      <c r="B403" t="e">
         <f>_xlfn.XLOOKUP(K403,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C403">
         <v>404799.17325211398</v>
       </c>
-      <c r="D403" t="str">
+      <c r="D403" t="e">
         <f t="shared" si="12"/>
-        <v>onUK-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J403" t="s">
         <v>4</v>
@@ -20066,16 +20066,16 @@
         <f>_xlfn.XLOOKUP(J404,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B404">
+      <c r="B404" t="e">
         <f>_xlfn.XLOOKUP(K404,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C404">
         <v>546416.48772987502</v>
       </c>
-      <c r="D404" t="str">
+      <c r="D404" t="e">
         <f t="shared" si="12"/>
-        <v>onUK-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J404" t="s">
         <v>4</v>
@@ -20093,16 +20093,16 @@
         <f>_xlfn.XLOOKUP(J405,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B405">
+      <c r="B405" t="e">
         <f>_xlfn.XLOOKUP(K405,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C405">
         <v>408700.96101331402</v>
       </c>
-      <c r="D405" t="str">
+      <c r="D405" t="e">
         <f t="shared" si="12"/>
-        <v>onUK-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J405" t="s">
         <v>4</v>
@@ -20120,16 +20120,16 @@
         <f>_xlfn.XLOOKUP(J406,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B406">
+      <c r="B406" t="e">
         <f>_xlfn.XLOOKUP(K406,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C406">
         <v>455169.40598444099</v>
       </c>
-      <c r="D406" t="str">
+      <c r="D406" t="e">
         <f t="shared" si="12"/>
-        <v>onUK-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J406" t="s">
         <v>4</v>
@@ -20174,16 +20174,16 @@
         <f>_xlfn.XLOOKUP(J408,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B408">
+      <c r="B408" t="e">
         <f>_xlfn.XLOOKUP(K408,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C408">
         <v>458738.52649916598</v>
       </c>
-      <c r="D408" t="str">
+      <c r="D408" t="e">
         <f t="shared" si="12"/>
-        <v>onUK-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J408" t="s">
         <v>4</v>
@@ -20201,16 +20201,16 @@
         <f>_xlfn.XLOOKUP(J409,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B409">
+      <c r="B409" t="e">
         <f>_xlfn.XLOOKUP(K409,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C409">
         <v>551786.118283952</v>
       </c>
-      <c r="D409" t="str">
+      <c r="D409" t="e">
         <f t="shared" si="12"/>
-        <v>onUK-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J409" t="s">
         <v>4</v>
@@ -21038,16 +21038,16 @@
         <f>_xlfn.XLOOKUP(J437,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B437">
+      <c r="B437" t="e">
         <f>_xlfn.XLOOKUP(K437,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C437">
         <v>501405.09455718898</v>
       </c>
-      <c r="D437" t="str">
+      <c r="D437" t="e">
         <f t="shared" si="12"/>
-        <v>onDKW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J437" t="s">
         <v>5</v>
@@ -21065,16 +21065,16 @@
         <f>_xlfn.XLOOKUP(J438,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B438">
+      <c r="B438" t="e">
         <f>_xlfn.XLOOKUP(K438,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C438">
         <v>322672.14027199801</v>
       </c>
-      <c r="D438" t="str">
+      <c r="D438" t="e">
         <f t="shared" si="12"/>
-        <v>onDKW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J438" t="s">
         <v>5</v>
@@ -21119,16 +21119,16 @@
         <f>_xlfn.XLOOKUP(J440,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B440">
+      <c r="B440" t="e">
         <f>_xlfn.XLOOKUP(K440,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C440">
         <v>473290.932268965</v>
       </c>
-      <c r="D440" t="str">
+      <c r="D440" t="e">
         <f t="shared" si="12"/>
-        <v>onDKW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J440" t="s">
         <v>5</v>
@@ -21146,16 +21146,16 @@
         <f>_xlfn.XLOOKUP(J441,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B441">
+      <c r="B441" t="e">
         <f>_xlfn.XLOOKUP(K441,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C441">
         <v>495166.13803063502</v>
       </c>
-      <c r="D441" t="str">
+      <c r="D441" t="e">
         <f t="shared" si="12"/>
-        <v>onDKW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J441" t="s">
         <v>5</v>
@@ -21173,16 +21173,16 @@
         <f>_xlfn.XLOOKUP(J442,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B442">
+      <c r="B442" t="e">
         <f>_xlfn.XLOOKUP(K442,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C442">
         <v>549321.10156864801</v>
       </c>
-      <c r="D442" t="str">
+      <c r="D442" t="e">
         <f t="shared" si="12"/>
-        <v>onDKW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J442" t="s">
         <v>5</v>
@@ -22064,16 +22064,16 @@
         <f>_xlfn.XLOOKUP(J472,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B472">
+      <c r="B472" t="e">
         <f>_xlfn.XLOOKUP(K472,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C472">
         <v>231831.08455602801</v>
       </c>
-      <c r="D472" t="str">
+      <c r="D472" t="e">
         <f t="shared" si="14"/>
-        <v>onNL_E-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J472" t="s">
         <v>6</v>
@@ -22091,16 +22091,16 @@
         <f>_xlfn.XLOOKUP(J473,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B473">
+      <c r="B473" t="e">
         <f>_xlfn.XLOOKUP(K473,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C473">
         <v>223025.65435875201</v>
       </c>
-      <c r="D473" t="str">
+      <c r="D473" t="e">
         <f t="shared" si="14"/>
-        <v>onNL_E-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J473" t="s">
         <v>6</v>
@@ -22118,16 +22118,16 @@
         <f>_xlfn.XLOOKUP(J474,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B474">
+      <c r="B474" t="e">
         <f>_xlfn.XLOOKUP(K474,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C474">
         <v>188360.705040998</v>
       </c>
-      <c r="D474" t="str">
+      <c r="D474" t="e">
         <f t="shared" si="14"/>
-        <v>onNL_E-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J474" t="s">
         <v>6</v>
@@ -22172,16 +22172,16 @@
         <f>_xlfn.XLOOKUP(J476,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B476">
+      <c r="B476" t="e">
         <f>_xlfn.XLOOKUP(K476,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C476">
         <v>174614.91081389401</v>
       </c>
-      <c r="D476" t="str">
+      <c r="D476" t="e">
         <f t="shared" si="14"/>
-        <v>onNL_E-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J476" t="s">
         <v>6</v>
@@ -22199,16 +22199,16 @@
         <f>_xlfn.XLOOKUP(J477,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B477">
+      <c r="B477" t="e">
         <f>_xlfn.XLOOKUP(K477,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C477">
         <v>203541.74250254</v>
       </c>
-      <c r="D477" t="str">
+      <c r="D477" t="e">
         <f t="shared" si="14"/>
-        <v>onNL_E-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J477" t="s">
         <v>6</v>
@@ -23036,16 +23036,16 @@
         <f>_xlfn.XLOOKUP(J505,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B505">
+      <c r="B505" t="e">
         <f>_xlfn.XLOOKUP(K505,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C505">
         <v>838419.61463610898</v>
       </c>
-      <c r="D505" t="str">
+      <c r="D505" t="e">
         <f t="shared" si="14"/>
-        <v>onNOS-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J505" t="s">
         <v>7</v>
@@ -23063,16 +23063,16 @@
         <f>_xlfn.XLOOKUP(J506,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B506">
+      <c r="B506" t="e">
         <f>_xlfn.XLOOKUP(K506,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C506">
         <v>698371.16643588</v>
       </c>
-      <c r="D506" t="str">
+      <c r="D506" t="e">
         <f t="shared" si="14"/>
-        <v>onNOS-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J506" t="s">
         <v>7</v>
@@ -23117,16 +23117,16 @@
         <f>_xlfn.XLOOKUP(J508,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B508">
+      <c r="B508" t="e">
         <f>_xlfn.XLOOKUP(K508,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C508">
         <v>833147.52352562197</v>
       </c>
-      <c r="D508" t="str">
+      <c r="D508" t="e">
         <f t="shared" si="14"/>
-        <v>onNOS-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J508" t="s">
         <v>7</v>
@@ -23144,16 +23144,16 @@
         <f>_xlfn.XLOOKUP(J509,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B509">
+      <c r="B509" t="e">
         <f>_xlfn.XLOOKUP(K509,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C509">
         <v>859999.16807018803</v>
       </c>
-      <c r="D509" t="str">
+      <c r="D509" t="e">
         <f t="shared" si="14"/>
-        <v>onNOS-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J509" t="s">
         <v>7</v>
@@ -23171,16 +23171,16 @@
         <f>_xlfn.XLOOKUP(J510,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B510">
+      <c r="B510" t="e">
         <f>_xlfn.XLOOKUP(K510,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C510">
         <v>918793.90570393903</v>
       </c>
-      <c r="D510" t="str">
+      <c r="D510" t="e">
         <f t="shared" si="14"/>
-        <v>onNOS-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J510" t="s">
         <v>7</v>
@@ -24062,16 +24062,16 @@
         <f>_xlfn.XLOOKUP(J540,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B540">
+      <c r="B540" t="e">
         <f>_xlfn.XLOOKUP(K540,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C540">
         <v>190144.53432957301</v>
       </c>
-      <c r="D540" t="str">
+      <c r="D540" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J540" t="s">
         <v>8</v>
@@ -24089,16 +24089,16 @@
         <f>_xlfn.XLOOKUP(J541,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B541">
+      <c r="B541" t="e">
         <f>_xlfn.XLOOKUP(K541,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C541">
         <v>145622.03921547101</v>
       </c>
-      <c r="D541" t="str">
+      <c r="D541" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J541" t="s">
         <v>8</v>
@@ -24116,16 +24116,16 @@
         <f>_xlfn.XLOOKUP(J542,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B542">
+      <c r="B542" t="e">
         <f>_xlfn.XLOOKUP(K542,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C542">
         <v>112050.812462159</v>
       </c>
-      <c r="D542" t="str">
+      <c r="D542" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J542" t="s">
         <v>8</v>
@@ -24170,16 +24170,16 @@
         <f>_xlfn.XLOOKUP(J544,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B544">
+      <c r="B544" t="e">
         <f>_xlfn.XLOOKUP(K544,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C544">
         <v>103752.93805857201</v>
       </c>
-      <c r="D544" t="str">
+      <c r="D544" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J544" t="s">
         <v>8</v>
@@ -24197,16 +24197,16 @@
         <f>_xlfn.XLOOKUP(J545,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B545">
+      <c r="B545" t="e">
         <f>_xlfn.XLOOKUP(K545,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C545">
         <v>163330.295064754</v>
       </c>
-      <c r="D545" t="str">
+      <c r="D545" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J545" t="s">
         <v>8</v>
@@ -25034,16 +25034,16 @@
         <f>_xlfn.XLOOKUP(J573,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B573">
+      <c r="B573" t="e">
         <f>_xlfn.XLOOKUP(K573,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C573">
         <v>206407.07441153101</v>
       </c>
-      <c r="D573" t="str">
+      <c r="D573" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J573" t="s">
         <v>9</v>
@@ -25061,16 +25061,16 @@
         <f>_xlfn.XLOOKUP(J574,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B574">
+      <c r="B574" t="e">
         <f>_xlfn.XLOOKUP(K574,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C574">
         <v>143550.81084519299</v>
       </c>
-      <c r="D574" t="str">
+      <c r="D574" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J574" t="s">
         <v>9</v>
@@ -25115,16 +25115,16 @@
         <f>_xlfn.XLOOKUP(J576,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B576">
+      <c r="B576" t="e">
         <f>_xlfn.XLOOKUP(K576,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C576">
         <v>156208.50423409801</v>
       </c>
-      <c r="D576" t="str">
+      <c r="D576" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J576" t="s">
         <v>9</v>
@@ -25142,16 +25142,16 @@
         <f>_xlfn.XLOOKUP(J577,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B577">
+      <c r="B577" t="e">
         <f>_xlfn.XLOOKUP(K577,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C577">
         <v>158291.16312514301</v>
       </c>
-      <c r="D577" t="str">
+      <c r="D577" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J577" t="s">
         <v>9</v>
@@ -25169,16 +25169,16 @@
         <f>_xlfn.XLOOKUP(J578,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B578">
+      <c r="B578" t="e">
         <f>_xlfn.XLOOKUP(K578,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C578">
         <v>187488.57501107801</v>
       </c>
-      <c r="D578" t="str">
+      <c r="D578" t="e">
         <f t="shared" si="16"/>
-        <v>onNL_NE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J578" t="s">
         <v>9</v>
@@ -26060,16 +26060,16 @@
         <f>_xlfn.XLOOKUP(J608,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B608">
+      <c r="B608" t="e">
         <f>_xlfn.XLOOKUP(K608,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C608">
         <v>307664.23538687301</v>
       </c>
-      <c r="D608" t="str">
+      <c r="D608" t="e">
         <f t="shared" si="18"/>
-        <v>onNL_CW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J608" t="s">
         <v>10</v>
@@ -26087,16 +26087,16 @@
         <f>_xlfn.XLOOKUP(J609,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B609">
+      <c r="B609" t="e">
         <f>_xlfn.XLOOKUP(K609,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C609">
         <v>193467.72291904301</v>
       </c>
-      <c r="D609" t="str">
+      <c r="D609" t="e">
         <f t="shared" si="18"/>
-        <v>onNL_CW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J609" t="s">
         <v>10</v>
@@ -26114,16 +26114,16 @@
         <f>_xlfn.XLOOKUP(J610,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B610">
+      <c r="B610" t="e">
         <f>_xlfn.XLOOKUP(K610,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C610">
         <v>194998.62483314899</v>
       </c>
-      <c r="D610" t="str">
+      <c r="D610" t="e">
         <f t="shared" si="18"/>
-        <v>onNL_CW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J610" t="s">
         <v>10</v>
@@ -26168,16 +26168,16 @@
         <f>_xlfn.XLOOKUP(J612,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B612">
+      <c r="B612" t="e">
         <f>_xlfn.XLOOKUP(K612,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C612">
         <v>125761.73073086</v>
       </c>
-      <c r="D612" t="str">
+      <c r="D612" t="e">
         <f t="shared" si="18"/>
-        <v>onNL_CW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J612" t="s">
         <v>10</v>
@@ -26195,16 +26195,16 @@
         <f>_xlfn.XLOOKUP(J613,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B613">
+      <c r="B613" t="e">
         <f>_xlfn.XLOOKUP(K613,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C613">
         <v>281644.17606710899</v>
       </c>
-      <c r="D613" t="str">
+      <c r="D613" t="e">
         <f t="shared" si="18"/>
-        <v>onNL_CW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J613" t="s">
         <v>10</v>
@@ -27032,16 +27032,16 @@
         <f>_xlfn.XLOOKUP(J641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B641">
+      <c r="B641" t="e">
         <f>_xlfn.XLOOKUP(K641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C641">
         <v>185717.44992658001</v>
       </c>
-      <c r="D641" t="str">
+      <c r="D641" t="e">
         <f t="shared" si="18"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J641" t="s">
         <v>11</v>
@@ -27059,16 +27059,16 @@
         <f>_xlfn.XLOOKUP(J642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B642">
+      <c r="B642" t="e">
         <f>_xlfn.XLOOKUP(K642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C642">
         <v>260754.08906105699</v>
       </c>
-      <c r="D642" t="str">
+      <c r="D642" t="e">
         <f t="shared" si="18"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J642" t="s">
         <v>11</v>
@@ -27113,16 +27113,16 @@
         <f>_xlfn.XLOOKUP(J644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B644">
+      <c r="B644" t="e">
         <f>_xlfn.XLOOKUP(K644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C644">
         <v>153196.85969856899</v>
       </c>
-      <c r="D644" t="str">
+      <c r="D644" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J644" t="s">
         <v>11</v>
@@ -27140,16 +27140,16 @@
         <f>_xlfn.XLOOKUP(J645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B645">
+      <c r="B645" t="e">
         <f>_xlfn.XLOOKUP(K645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C645">
         <v>129470.70179263101</v>
       </c>
-      <c r="D645" t="str">
+      <c r="D645" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J645" t="s">
         <v>11</v>
@@ -27167,16 +27167,16 @@
         <f>_xlfn.XLOOKUP(J646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B646">
+      <c r="B646" t="e">
         <f>_xlfn.XLOOKUP(K646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C646">
         <v>96348.178368929599</v>
       </c>
-      <c r="D646" t="str">
+      <c r="D646" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J646" t="s">
         <v>11</v>
@@ -27194,16 +27194,16 @@
         <f>_xlfn.XLOOKUP(J647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B647">
+      <c r="B647" t="e">
         <f>_xlfn.XLOOKUP(K647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C647">
         <v>234773.42443201199</v>
       </c>
-      <c r="D647" t="str">
+      <c r="D647" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J647" t="s">
         <v>11</v>
@@ -28058,16 +28058,16 @@
         <f>_xlfn.XLOOKUP(J676,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B676">
+      <c r="B676" t="e">
         <f>_xlfn.XLOOKUP(K676,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C676">
         <v>342139.68119642697</v>
       </c>
-      <c r="D676" t="str">
+      <c r="D676" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J676" t="s">
         <v>12</v>
@@ -28085,16 +28085,16 @@
         <f>_xlfn.XLOOKUP(J677,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B677">
+      <c r="B677" t="e">
         <f>_xlfn.XLOOKUP(K677,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C677">
         <v>282898.16200192599</v>
       </c>
-      <c r="D677" t="str">
+      <c r="D677" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J677" t="s">
         <v>12</v>
@@ -28112,16 +28112,16 @@
         <f>_xlfn.XLOOKUP(J678,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B678">
+      <c r="B678" t="e">
         <f>_xlfn.XLOOKUP(K678,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C678">
         <v>267961.25650336302</v>
       </c>
-      <c r="D678" t="str">
+      <c r="D678" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J678" t="s">
         <v>12</v>
@@ -28166,16 +28166,16 @@
         <f>_xlfn.XLOOKUP(J680,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B680">
+      <c r="B680" t="e">
         <f>_xlfn.XLOOKUP(K680,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C680">
         <v>218468.16264544</v>
       </c>
-      <c r="D680" t="str">
+      <c r="D680" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J680" t="s">
         <v>12</v>
@@ -28193,16 +28193,16 @@
         <f>_xlfn.XLOOKUP(J681,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B681">
+      <c r="B681" t="e">
         <f>_xlfn.XLOOKUP(K681,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C681">
         <v>313941.84200454399</v>
       </c>
-      <c r="D681" t="str">
+      <c r="D681" t="e">
         <f t="shared" si="20"/>
-        <v>onNL_SE-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J681" t="s">
         <v>12</v>
@@ -29030,16 +29030,16 @@
         <f>_xlfn.XLOOKUP(J709,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B709">
+      <c r="B709" t="e">
         <f>_xlfn.XLOOKUP(K709,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C709">
         <v>118733.85266061001</v>
       </c>
-      <c r="D709" t="str">
+      <c r="D709" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_EG-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J709" t="s">
         <v>17</v>
@@ -29057,16 +29057,16 @@
         <f>_xlfn.XLOOKUP(J710,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B710">
+      <c r="B710" t="e">
         <f>_xlfn.XLOOKUP(K710,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C710">
         <v>200658.75444033899</v>
       </c>
-      <c r="D710" t="str">
+      <c r="D710" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_EG-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J710" t="s">
         <v>17</v>
@@ -29084,16 +29084,16 @@
         <f>_xlfn.XLOOKUP(J711,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B711">
+      <c r="B711" t="e">
         <f>_xlfn.XLOOKUP(K711,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C711">
         <v>100122.902332649</v>
       </c>
-      <c r="D711" t="str">
+      <c r="D711" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_EG-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J711" t="s">
         <v>17</v>
@@ -29111,16 +29111,16 @@
         <f>_xlfn.XLOOKUP(J712,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B712">
+      <c r="B712" t="e">
         <f>_xlfn.XLOOKUP(K712,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C712">
         <v>82078.612033989004</v>
       </c>
-      <c r="D712" t="str">
+      <c r="D712" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_EG-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J712" t="s">
         <v>17</v>
@@ -29138,16 +29138,16 @@
         <f>_xlfn.XLOOKUP(J713,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B713">
+      <c r="B713" t="e">
         <f>_xlfn.XLOOKUP(K713,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C713">
         <v>59797.892529909303</v>
       </c>
-      <c r="D713" t="str">
+      <c r="D713" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_EG-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J713" t="s">
         <v>17</v>
@@ -29165,16 +29165,16 @@
         <f>_xlfn.XLOOKUP(J714,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B714">
+      <c r="B714" t="e">
         <f>_xlfn.XLOOKUP(K714,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C714">
         <v>53715.824863438502</v>
       </c>
-      <c r="D714" t="str">
+      <c r="D714" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_EG-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J714" t="s">
         <v>17</v>
@@ -30056,16 +30056,16 @@
         <f>_xlfn.XLOOKUP(J744,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B744">
+      <c r="B744" t="e">
         <f>_xlfn.XLOOKUP(K744,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C744">
         <v>207918.26174095599</v>
       </c>
-      <c r="D744" t="str">
+      <c r="D744" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J744" t="s">
         <v>18</v>
@@ -30083,16 +30083,16 @@
         <f>_xlfn.XLOOKUP(J745,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B745">
+      <c r="B745" t="e">
         <f>_xlfn.XLOOKUP(K745,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C745">
         <v>90594.350647529296</v>
       </c>
-      <c r="D745" t="str">
+      <c r="D745" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J745" t="s">
         <v>18</v>
@@ -30110,16 +30110,16 @@
         <f>_xlfn.XLOOKUP(J746,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B746">
+      <c r="B746" t="e">
         <f>_xlfn.XLOOKUP(K746,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C746">
         <v>80398.105283812198</v>
       </c>
-      <c r="D746" t="str">
+      <c r="D746" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J746" t="s">
         <v>18</v>
@@ -30164,16 +30164,16 @@
         <f>_xlfn.XLOOKUP(J748,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B748">
+      <c r="B748" t="e">
         <f>_xlfn.XLOOKUP(K748,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C748">
         <v>40196.7046414453</v>
       </c>
-      <c r="D748" t="str">
+      <c r="D748" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J748" t="s">
         <v>18</v>
@@ -30191,16 +30191,16 @@
         <f>_xlfn.XLOOKUP(J749,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B749">
+      <c r="B749" t="e">
         <f>_xlfn.XLOOKUP(K749,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C749">
         <v>185414.49559926</v>
       </c>
-      <c r="D749" t="str">
+      <c r="D749" t="e">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J749" t="s">
         <v>18</v>
@@ -31028,16 +31028,16 @@
         <f>_xlfn.XLOOKUP(J777,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B777">
+      <c r="B777" t="e">
         <f>_xlfn.XLOOKUP(K777,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C777">
         <v>127312.61001238201</v>
       </c>
-      <c r="D777" t="str">
+      <c r="D777" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_LU-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J777" t="s">
         <v>19</v>
@@ -31055,16 +31055,16 @@
         <f>_xlfn.XLOOKUP(J778,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B778">
+      <c r="B778" t="e">
         <f>_xlfn.XLOOKUP(K778,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C778">
         <v>228140.883614928</v>
       </c>
-      <c r="D778" t="str">
+      <c r="D778" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_LU-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J778" t="s">
         <v>19</v>
@@ -31109,16 +31109,16 @@
         <f>_xlfn.XLOOKUP(J780,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B780">
+      <c r="B780" t="e">
         <f>_xlfn.XLOOKUP(K780,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C780">
         <v>99859.301224056602</v>
       </c>
-      <c r="D780" t="str">
+      <c r="D780" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_LU-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J780" t="s">
         <v>19</v>
@@ -31136,16 +31136,16 @@
         <f>_xlfn.XLOOKUP(J781,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B781">
+      <c r="B781" t="e">
         <f>_xlfn.XLOOKUP(K781,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C781">
         <v>73867.988454154605</v>
       </c>
-      <c r="D781" t="str">
+      <c r="D781" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_LU-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J781" t="s">
         <v>19</v>
@@ -31163,16 +31163,16 @@
         <f>_xlfn.XLOOKUP(J782,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B782">
+      <c r="B782" t="e">
         <f>_xlfn.XLOOKUP(K782,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C782">
         <v>39737.196057303299</v>
       </c>
-      <c r="D782" t="str">
+      <c r="D782" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_LU-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J782" t="s">
         <v>19</v>
@@ -32027,16 +32027,16 @@
         <f>_xlfn.XLOOKUP(J811,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B811">
+      <c r="B811" t="e">
         <f>_xlfn.XLOOKUP(K811,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C811">
         <v>186958.683198082</v>
       </c>
-      <c r="D811" t="str">
+      <c r="D811" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J811" t="s">
         <v>20</v>
@@ -32054,16 +32054,16 @@
         <f>_xlfn.XLOOKUP(J812,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B812">
+      <c r="B812" t="e">
         <f>_xlfn.XLOOKUP(K812,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C812">
         <v>33207.696143719601</v>
       </c>
-      <c r="D812" t="str">
+      <c r="D812" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J812" t="s">
         <v>20</v>
@@ -32081,16 +32081,16 @@
         <f>_xlfn.XLOOKUP(J813,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B813">
+      <c r="B813" t="e">
         <f>_xlfn.XLOOKUP(K813,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C813">
         <v>207280.892903742</v>
       </c>
-      <c r="D813" t="str">
+      <c r="D813" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J813" t="s">
         <v>20</v>
@@ -32108,16 +32108,16 @@
         <f>_xlfn.XLOOKUP(J814,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B814">
+      <c r="B814" t="e">
         <f>_xlfn.XLOOKUP(K814,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C814">
         <v>149850.477523804</v>
       </c>
-      <c r="D814" t="str">
+      <c r="D814" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J814" t="s">
         <v>20</v>
@@ -32135,16 +32135,16 @@
         <f>_xlfn.XLOOKUP(J815,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B815">
+      <c r="B815" t="e">
         <f>_xlfn.XLOOKUP(K815,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C815">
         <v>169473.28595257201</v>
       </c>
-      <c r="D815" t="str">
+      <c r="D815" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J815" t="s">
         <v>20</v>
@@ -32162,16 +32162,16 @@
         <f>_xlfn.XLOOKUP(J816,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B816">
+      <c r="B816" t="e">
         <f>_xlfn.XLOOKUP(K816,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C816">
         <v>222672.535046134</v>
       </c>
-      <c r="D816" t="str">
+      <c r="D816" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J816" t="s">
         <v>20</v>
@@ -32189,16 +32189,16 @@
         <f>_xlfn.XLOOKUP(J817,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B817">
+      <c r="B817" t="e">
         <f>_xlfn.XLOOKUP(K817,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C817">
         <v>15916.0111028014</v>
       </c>
-      <c r="D817" t="str">
+      <c r="D817" t="e">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J817" t="s">
         <v>20</v>
@@ -33026,16 +33026,16 @@
         <f>_xlfn.XLOOKUP(J845,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B845">
+      <c r="B845" t="e">
         <f>_xlfn.XLOOKUP(K845,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C845">
         <v>196785.62922179699</v>
       </c>
-      <c r="D845" t="str">
+      <c r="D845" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_GE_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J845" t="s">
         <v>21</v>
@@ -33053,16 +33053,16 @@
         <f>_xlfn.XLOOKUP(J846,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B846">
+      <c r="B846" t="e">
         <f>_xlfn.XLOOKUP(K846,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C846">
         <v>39986.146991542599</v>
       </c>
-      <c r="D846" t="str">
+      <c r="D846" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_GE_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J846" t="s">
         <v>21</v>
@@ -33107,16 +33107,16 @@
         <f>_xlfn.XLOOKUP(J848,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B848">
+      <c r="B848" t="e">
         <f>_xlfn.XLOOKUP(K848,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C848">
         <v>158872.27340384701</v>
       </c>
-      <c r="D848" t="str">
+      <c r="D848" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_GE_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J848" t="s">
         <v>21</v>
@@ -33134,16 +33134,16 @@
         <f>_xlfn.XLOOKUP(J849,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B849">
+      <c r="B849" t="e">
         <f>_xlfn.XLOOKUP(K849,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C849">
         <v>177840.419469363</v>
       </c>
-      <c r="D849" t="str">
+      <c r="D849" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_GE_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J849" t="s">
         <v>21</v>
@@ -34052,16 +34052,16 @@
         <f>_xlfn.XLOOKUP(J880,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B880">
+      <c r="B880" t="e">
         <f>_xlfn.XLOOKUP(K880,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C880">
         <v>194641.69900040299</v>
       </c>
-      <c r="D880" t="str">
+      <c r="D880" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J880" t="s">
         <v>24</v>
@@ -34079,16 +34079,16 @@
         <f>_xlfn.XLOOKUP(J881,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B881">
+      <c r="B881" t="e">
         <f>_xlfn.XLOOKUP(K881,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C881">
         <v>84739.171660463806</v>
       </c>
-      <c r="D881" t="str">
+      <c r="D881" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J881" t="s">
         <v>24</v>
@@ -34106,16 +34106,16 @@
         <f>_xlfn.XLOOKUP(J882,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B882">
+      <c r="B882" t="e">
         <f>_xlfn.XLOOKUP(K882,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C882">
         <v>67767.381988453402</v>
       </c>
-      <c r="D882" t="str">
+      <c r="D882" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J882" t="s">
         <v>24</v>
@@ -34133,16 +34133,16 @@
         <f>_xlfn.XLOOKUP(J883,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B883">
+      <c r="B883" t="e">
         <f>_xlfn.XLOOKUP(K883,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C883">
         <v>44278.276109139399</v>
       </c>
-      <c r="D883" t="str">
+      <c r="D883" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J883" t="s">
         <v>24</v>
@@ -34160,16 +34160,16 @@
         <f>_xlfn.XLOOKUP(J884,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B884">
+      <c r="B884" t="e">
         <f>_xlfn.XLOOKUP(K884,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C884">
         <v>45732.373151166699</v>
       </c>
-      <c r="D884" t="str">
+      <c r="D884" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J884" t="s">
         <v>24</v>
@@ -34187,16 +34187,16 @@
         <f>_xlfn.XLOOKUP(J885,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B885">
+      <c r="B885" t="e">
         <f>_xlfn.XLOOKUP(K885,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C885">
         <v>172529.32580863399</v>
       </c>
-      <c r="D885" t="str">
+      <c r="D885" t="e">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J885" t="s">
         <v>24</v>
@@ -35024,16 +35024,16 @@
         <f>_xlfn.XLOOKUP(J913,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B913">
+      <c r="B913" t="e">
         <f>_xlfn.XLOOKUP(K913,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C913">
         <v>85063.7874553367</v>
       </c>
-      <c r="D913" t="str">
+      <c r="D913" t="e">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J913" t="s">
         <v>25</v>
@@ -35105,16 +35105,16 @@
         <f>_xlfn.XLOOKUP(J916,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B916">
+      <c r="B916" t="e">
         <f>_xlfn.XLOOKUP(K916,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C916">
         <v>64805.814007759604</v>
       </c>
-      <c r="D916" t="str">
+      <c r="D916" t="e">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J916" t="s">
         <v>25</v>
@@ -35132,16 +35132,16 @@
         <f>_xlfn.XLOOKUP(J917,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B917">
+      <c r="B917" t="e">
         <f>_xlfn.XLOOKUP(K917,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C917">
         <v>37529.695058487298</v>
       </c>
-      <c r="D917" t="str">
+      <c r="D917" t="e">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_A-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J917" t="s">
         <v>25</v>
@@ -36050,16 +36050,16 @@
         <f>_xlfn.XLOOKUP(J948,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B948">
+      <c r="B948" t="e">
         <f>_xlfn.XLOOKUP(K948,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C948">
         <v>220186.54900412701</v>
       </c>
-      <c r="D948" t="str">
+      <c r="D948" t="e">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J948" t="s">
         <v>26</v>
@@ -36077,16 +36077,16 @@
         <f>_xlfn.XLOOKUP(J949,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B949">
+      <c r="B949" t="e">
         <f>_xlfn.XLOOKUP(K949,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C949">
         <v>62631.4792978271</v>
       </c>
-      <c r="D949" t="str">
+      <c r="D949" t="e">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J949" t="s">
         <v>26</v>
@@ -36158,16 +36158,16 @@
         <f>_xlfn.XLOOKUP(J952,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B952">
+      <c r="B952" t="e">
         <f>_xlfn.XLOOKUP(K952,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C952">
         <v>10424.166929765899</v>
       </c>
-      <c r="D952" t="str">
+      <c r="D952" t="e">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J952" t="s">
         <v>26</v>
@@ -36185,16 +36185,16 @@
         <f>_xlfn.XLOOKUP(J953,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B953">
+      <c r="B953" t="e">
         <f>_xlfn.XLOOKUP(K953,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C953">
         <v>200702.858860924</v>
       </c>
-      <c r="D953" t="str">
+      <c r="D953" t="e">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_B-0</v>
+        <v>#N/A</v>
       </c>
       <c r="J953" t="s">
         <v>26</v>
@@ -37106,9 +37106,9 @@
         <f>_xlfn.XLOOKUP(J984,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B984">
+      <c r="B984" t="e">
         <f>_xlfn.XLOOKUP(K984,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C984">
         <v>50387.045437731802</v>
@@ -37133,9 +37133,9 @@
         <f>_xlfn.XLOOKUP(J985,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B985">
+      <c r="B985" t="e">
         <f>_xlfn.XLOOKUP(K985,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C985">
         <v>59887.816452013598</v>
@@ -38054,9 +38054,9 @@
         <f>_xlfn.XLOOKUP(J1016,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1016">
+      <c r="B1016" t="e">
         <f>_xlfn.XLOOKUP(K1016,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1016">
         <v>180507.20880773399</v>
@@ -38081,9 +38081,9 @@
         <f>_xlfn.XLOOKUP(J1017,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1017">
+      <c r="B1017" t="e">
         <f>_xlfn.XLOOKUP(K1017,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1017">
         <v>205305.58672767601</v>
@@ -38108,9 +38108,9 @@
         <f>_xlfn.XLOOKUP(J1018,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1018">
+      <c r="B1018" t="e">
         <f>_xlfn.XLOOKUP(K1018,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1018">
         <v>150889.363264735</v>
@@ -38162,9 +38162,9 @@
         <f>_xlfn.XLOOKUP(J1020,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1020">
+      <c r="B1020" t="e">
         <f>_xlfn.XLOOKUP(K1020,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1020">
         <v>230588.596779532</v>
@@ -38189,9 +38189,9 @@
         <f>_xlfn.XLOOKUP(J1021,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1021">
+      <c r="B1021" t="e">
         <f>_xlfn.XLOOKUP(K1021,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1021">
         <v>28292.533497465502</v>
@@ -39110,9 +39110,9 @@
         <f>_xlfn.XLOOKUP(J1052,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1052">
+      <c r="B1052" t="e">
         <f>_xlfn.XLOOKUP(K1052,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1052">
         <v>58403.493250702799</v>
@@ -39137,9 +39137,9 @@
         <f>_xlfn.XLOOKUP(J1053,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1053">
+      <c r="B1053" t="e">
         <f>_xlfn.XLOOKUP(K1053,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1053">
         <v>50571.837918178797</v>
@@ -40058,9 +40058,9 @@
         <f>_xlfn.XLOOKUP(J1084,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1084">
+      <c r="B1084" t="e">
         <f>_xlfn.XLOOKUP(K1084,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1084">
         <v>50387.045437731802</v>
@@ -40085,9 +40085,9 @@
         <f>_xlfn.XLOOKUP(J1085,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1085">
+      <c r="B1085" t="e">
         <f>_xlfn.XLOOKUP(K1085,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1085">
         <v>150889.363264735</v>
@@ -40112,9 +40112,9 @@
         <f>_xlfn.XLOOKUP(J1086,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1086">
+      <c r="B1086" t="e">
         <f>_xlfn.XLOOKUP(K1086,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1086">
         <v>58403.493250702901</v>
@@ -40166,9 +40166,9 @@
         <f>_xlfn.XLOOKUP(J1088,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1088">
+      <c r="B1088" t="e">
         <f>_xlfn.XLOOKUP(K1088,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1088">
         <v>85732.578229217295</v>
@@ -40193,9 +40193,9 @@
         <f>_xlfn.XLOOKUP(J1089,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1089">
+      <c r="B1089" t="e">
         <f>_xlfn.XLOOKUP(K1089,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1089">
         <v>135883.15121917499</v>
@@ -41114,9 +41114,9 @@
         <f>_xlfn.XLOOKUP(J1120,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1120">
+      <c r="B1120" t="e">
         <f>_xlfn.XLOOKUP(K1120,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1120">
         <v>50571.837918178797</v>
@@ -41141,9 +41141,9 @@
         <f>_xlfn.XLOOKUP(J1121,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1121">
+      <c r="B1121" t="e">
         <f>_xlfn.XLOOKUP(K1121,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1121">
         <v>27303.143066912799</v>
@@ -42062,9 +42062,9 @@
         <f>_xlfn.XLOOKUP(J1152,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1152">
+      <c r="B1152" t="e">
         <f>_xlfn.XLOOKUP(K1152,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1152">
         <v>98223.784172985805</v>
@@ -42089,9 +42089,9 @@
         <f>_xlfn.XLOOKUP(J1153,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1153">
+      <c r="B1153" t="e">
         <f>_xlfn.XLOOKUP(K1153,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1153">
         <v>230588.59677953101</v>
@@ -42116,9 +42116,9 @@
         <f>_xlfn.XLOOKUP(J1154,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1154">
+      <c r="B1154" t="e">
         <f>_xlfn.XLOOKUP(K1154,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1154">
         <v>67797.181359645299</v>
@@ -42143,9 +42143,9 @@
         <f>_xlfn.XLOOKUP(J1155,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1155">
+      <c r="B1155" t="e">
         <f>_xlfn.XLOOKUP(K1155,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1155">
         <v>85732.578229217805</v>
@@ -42170,9 +42170,9 @@
         <f>_xlfn.XLOOKUP(J1156,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1156">
+      <c r="B1156" t="e">
         <f>_xlfn.XLOOKUP(K1156,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1156">
         <v>58808.814216680497</v>
@@ -42197,9 +42197,9 @@
         <f>_xlfn.XLOOKUP(J1157,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1157">
+      <c r="B1157" t="e">
         <f>_xlfn.XLOOKUP(K1157,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1157">
         <v>210993.494479969</v>
@@ -43118,9 +43118,9 @@
         <f>_xlfn.XLOOKUP(J1188,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1188">
+      <c r="B1188" t="e">
         <f>_xlfn.XLOOKUP(K1188,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1188">
         <v>192813.694724364</v>
@@ -43145,9 +43145,9 @@
         <f>_xlfn.XLOOKUP(J1189,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1189">
+      <c r="B1189" t="e">
         <f>_xlfn.XLOOKUP(K1189,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C1189">
         <v>135883.15121917499</v>

--- a/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
+++ b/cases/NorthSea/Networks/NetworkDataHydrogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6020B47F-3337-4BC7-8364-50C0A5C5D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A42B05-A906-46CE-91C0-7286E0ACC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkConnection" sheetId="7" r:id="rId1"/>
@@ -454,7 +454,7 @@
             <v>NL_on_Holland_S</v>
           </cell>
           <cell r="B5" t="str">
-            <v>onNL_SW</v>
+            <v>onNL_W</v>
           </cell>
         </row>
         <row r="6">
@@ -650,13 +650,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>onNL_NE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -961,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343B1B1-37DC-4EB7-AD64-1154038557BC}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4077,11 +4071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19037A9-823E-43DC-977F-676C2E51B637}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4192,7 @@
       </c>
       <c r="E2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>160.215717690189</v>
       </c>
       <c r="F2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4315,7 +4309,7 @@
       </c>
       <c r="E3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>122.233015251859</v>
       </c>
       <c r="F3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4432,7 +4426,7 @@
       </c>
       <c r="E4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>73.098190833047397</v>
       </c>
       <c r="F4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4537,15 +4531,15 @@
       </c>
       <c r="B5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;B$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>160.215717690189</v>
       </c>
       <c r="C5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;C$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>122.23301525186</v>
       </c>
       <c r="D5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;D$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>73.098190833047212</v>
       </c>
       <c r="E5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4553,99 +4547,99 @@
       </c>
       <c r="F5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>68.354024510095513</v>
       </c>
       <c r="G5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>83.093200778342506</v>
       </c>
       <c r="H5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>46.910149427661402</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;I$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.65552976572999</v>
       </c>
       <c r="J5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;J$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>150.147779690883</v>
       </c>
       <c r="K5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;K$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>407.114647437315</v>
       </c>
       <c r="L5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;L$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>551.71631086470302</v>
       </c>
       <c r="M5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;M$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>959.02504167433392</v>
       </c>
       <c r="N5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;N$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>556.130636818217</v>
       </c>
       <c r="O5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;O$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>123.609996781029</v>
       </c>
       <c r="P5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;P$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>127.816754983997</v>
       </c>
       <c r="Q5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Q$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>117.490074404659</v>
       </c>
       <c r="R5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;R$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>124.576180972134</v>
       </c>
       <c r="S5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;S$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>71.264063469820798</v>
       </c>
       <c r="T5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;T$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>74.10717060114159</v>
       </c>
       <c r="U5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;U$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>59.062457639507599</v>
       </c>
       <c r="V5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;V$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>241.071005421938</v>
       </c>
       <c r="W5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;W$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>245.15186942224801</v>
       </c>
       <c r="X5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;X$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>53.326987538476402</v>
       </c>
       <c r="Y5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Y$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>60.596188522896895</v>
       </c>
       <c r="Z5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Z$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>85.584997692026306</v>
       </c>
       <c r="AA5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AA$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.47154062254799</v>
       </c>
       <c r="AB5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AB$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>98.835658944315696</v>
       </c>
       <c r="AC5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AC$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>133.60579280435599</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -4666,7 +4660,7 @@
       </c>
       <c r="E6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>68.354024510095897</v>
       </c>
       <c r="F6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4783,7 +4777,7 @@
       </c>
       <c r="E7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>83.093200778342691</v>
       </c>
       <c r="F7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4791,7 +4785,7 @@
       </c>
       <c r="G7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4900,7 +4894,7 @@
       </c>
       <c r="E8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>46.910149427661196</v>
       </c>
       <c r="F8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5017,7 +5011,7 @@
       </c>
       <c r="E9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.65552976572999</v>
       </c>
       <c r="F9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5134,7 +5128,7 @@
       </c>
       <c r="E10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>150.14777969088198</v>
       </c>
       <c r="F10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5251,7 +5245,7 @@
       </c>
       <c r="E11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>407.114647437315</v>
       </c>
       <c r="F11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5368,7 +5362,7 @@
       </c>
       <c r="E12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>551.71631086470302</v>
       </c>
       <c r="F12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5485,7 +5479,7 @@
       </c>
       <c r="E13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>959.02504167433392</v>
       </c>
       <c r="F13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5602,7 +5596,7 @@
       </c>
       <c r="E14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>556.130636818217</v>
       </c>
       <c r="F14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5719,7 +5713,7 @@
       </c>
       <c r="E15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>123.609996781029</v>
       </c>
       <c r="F15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5836,7 +5830,7 @@
       </c>
       <c r="E16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>127.816754983997</v>
       </c>
       <c r="F16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5953,7 +5947,7 @@
       </c>
       <c r="E17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>117.490074404659</v>
       </c>
       <c r="F17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6070,7 +6064,7 @@
       </c>
       <c r="E18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>124.576180972134</v>
       </c>
       <c r="F18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6187,7 +6181,7 @@
       </c>
       <c r="E19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>71.264063469820599</v>
       </c>
       <c r="F19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6304,7 +6298,7 @@
       </c>
       <c r="E20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>74.107170601141206</v>
       </c>
       <c r="F20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6421,7 +6415,7 @@
       </c>
       <c r="E21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>59.062457639507798</v>
       </c>
       <c r="F21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6538,7 +6532,7 @@
       </c>
       <c r="E22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>241.071005421938</v>
       </c>
       <c r="F22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6655,7 +6649,7 @@
       </c>
       <c r="E23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>245.15186942224801</v>
       </c>
       <c r="F23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6772,7 +6766,7 @@
       </c>
       <c r="E24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>53.326987538476494</v>
       </c>
       <c r="F24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6889,7 +6883,7 @@
       </c>
       <c r="E25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>60.596188522896803</v>
       </c>
       <c r="F25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7006,7 +7000,7 @@
       </c>
       <c r="E26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>85.584997692026604</v>
       </c>
       <c r="F26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7123,7 +7117,7 @@
       </c>
       <c r="E27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.47154062254799</v>
       </c>
       <c r="F27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7240,7 +7234,7 @@
       </c>
       <c r="E28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>98.835658944315398</v>
       </c>
       <c r="F28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7357,7 +7351,7 @@
       </c>
       <c r="E29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>133.60579280435599</v>
       </c>
       <c r="F29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8752,14 +8746,14 @@
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(K19,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C19">
         <v>117490.074404659</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-onNL_SW</v>
+        <v>ofNL_BO_A-onNL_W</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -9050,16 +9044,16 @@
         <f>_xlfn.XLOOKUP(J29,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B29" t="e">
+      <c r="B29">
         <f>_xlfn.XLOOKUP(K29,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>191596.37753680401</v>
       </c>
-      <c r="D29" t="e">
+      <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -9077,16 +9071,16 @@
         <f>_xlfn.XLOOKUP(J30,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30">
         <f>_xlfn.XLOOKUP(K30,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>333095.10230934201</v>
       </c>
-      <c r="D30" t="e">
+      <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -9104,16 +9098,16 @@
         <f>_xlfn.XLOOKUP(J31,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B31" t="e">
+      <c r="B31">
         <f>_xlfn.XLOOKUP(K31,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>156916.32279679601</v>
       </c>
-      <c r="D31" t="e">
+      <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -9131,16 +9125,16 @@
         <f>_xlfn.XLOOKUP(J32,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B32" t="e">
+      <c r="B32">
         <f>_xlfn.XLOOKUP(K32,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>189298.15485214701</v>
       </c>
-      <c r="D32" t="e">
+      <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -9158,16 +9152,16 @@
         <f>_xlfn.XLOOKUP(J33,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B33" t="e">
+      <c r="B33">
         <f>_xlfn.XLOOKUP(K33,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>162613.06945119001</v>
       </c>
-      <c r="D33" t="e">
+      <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -9185,16 +9179,16 @@
         <f>_xlfn.XLOOKUP(J34,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B34" t="e">
+      <c r="B34">
         <f>_xlfn.XLOOKUP(K34,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>103841.45168392301</v>
       </c>
-      <c r="D34" t="e">
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -9212,16 +9206,16 @@
         <f>_xlfn.XLOOKUP(J35,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B35" t="e">
+      <c r="B35">
         <f>_xlfn.XLOOKUP(K35,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>311999.38816481997</v>
       </c>
-      <c r="D35" t="e">
+      <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -9751,14 +9745,14 @@
       </c>
       <c r="B53" t="str">
         <f>_xlfn.XLOOKUP(K53,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C53">
         <v>53326.987538476496</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>ofNL_KZ_B-onNL_SW</v>
+        <v>ofNL_KZ_B-onNL_W</v>
       </c>
       <c r="J53" t="s">
         <v>22</v>
@@ -10049,16 +10043,16 @@
         <f>_xlfn.XLOOKUP(J63,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B63" t="e">
+      <c r="B63">
         <f>_xlfn.XLOOKUP(K63,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>137450.83092896899</v>
       </c>
-      <c r="D63" t="e">
+      <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
@@ -10076,16 +10070,16 @@
         <f>_xlfn.XLOOKUP(J64,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B64" t="e">
+      <c r="B64">
         <f>_xlfn.XLOOKUP(K64,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>243258.959951344</v>
       </c>
-      <c r="D64" t="e">
+      <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
@@ -10103,16 +10097,16 @@
         <f>_xlfn.XLOOKUP(J65,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B65" t="e">
+      <c r="B65">
         <f>_xlfn.XLOOKUP(K65,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>109786.090950069</v>
       </c>
-      <c r="D65" t="e">
+      <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
@@ -10130,16 +10124,16 @@
         <f>_xlfn.XLOOKUP(J66,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B66" t="e">
+      <c r="B66">
         <f>_xlfn.XLOOKUP(K66,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>113348.878351917</v>
       </c>
-      <c r="D66" t="e">
+      <c r="D66" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="J66" t="s">
         <v>22</v>
@@ -10157,16 +10151,16 @@
         <f>_xlfn.XLOOKUP(J67,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B67" t="e">
+      <c r="B67">
         <f>_xlfn.XLOOKUP(K67,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>86773.299309921495</v>
       </c>
-      <c r="D67" t="e">
+      <c r="D67" t="str">
         <f t="shared" ref="D67:D130" si="2">A67&amp;"-"&amp;B67</f>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
@@ -10184,16 +10178,16 @@
         <f>_xlfn.XLOOKUP(J68,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B68" t="e">
+      <c r="B68">
         <f>_xlfn.XLOOKUP(K68,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>43293.153630168999</v>
       </c>
-      <c r="D68" t="e">
+      <c r="D68" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
@@ -10211,16 +10205,16 @@
         <f>_xlfn.XLOOKUP(J69,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B69" t="e">
+      <c r="B69">
         <f>_xlfn.XLOOKUP(K69,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>220233.25555341301</v>
       </c>
-      <c r="D69" t="e">
+      <c r="D69" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="J69" t="s">
         <v>22</v>
@@ -10750,14 +10744,14 @@
       </c>
       <c r="B87" t="str">
         <f>_xlfn.XLOOKUP(K87,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C87">
         <v>123609.996781029</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-onNL_SW</v>
+        <v>ofNL_IJ_B-onNL_W</v>
       </c>
       <c r="J87" t="s">
         <v>13</v>
@@ -11048,16 +11042,16 @@
         <f>_xlfn.XLOOKUP(J97,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B97" t="e">
+      <c r="B97">
         <f>_xlfn.XLOOKUP(K97,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>67534.577780818101</v>
       </c>
-      <c r="D97" t="e">
+      <c r="D97" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="J97" t="s">
         <v>13</v>
@@ -11075,16 +11069,16 @@
         <f>_xlfn.XLOOKUP(J98,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B98" t="e">
+      <c r="B98">
         <f>_xlfn.XLOOKUP(K98,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>212707.61920466201</v>
       </c>
-      <c r="D98" t="e">
+      <c r="D98" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="J98" t="s">
         <v>13</v>
@@ -11102,16 +11096,16 @@
         <f>_xlfn.XLOOKUP(J99,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B99" t="e">
+      <c r="B99">
         <f>_xlfn.XLOOKUP(K99,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>37690.713598320399</v>
       </c>
-      <c r="D99" t="e">
+      <c r="D99" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="J99" t="s">
         <v>13</v>
@@ -11129,16 +11123,16 @@
         <f>_xlfn.XLOOKUP(J100,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B100" t="e">
+      <c r="B100">
         <f>_xlfn.XLOOKUP(K100,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>62641.5905742057</v>
       </c>
-      <c r="D100" t="e">
+      <c r="D100" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="J100" t="s">
         <v>13</v>
@@ -11156,16 +11150,16 @@
         <f>_xlfn.XLOOKUP(J101,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B101" t="e">
+      <c r="B101">
         <f>_xlfn.XLOOKUP(K101,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>39251.457274810004</v>
       </c>
-      <c r="D101" t="e">
+      <c r="D101" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="J101" t="s">
         <v>13</v>
@@ -11183,16 +11177,16 @@
         <f>_xlfn.XLOOKUP(J102,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B102" t="e">
+      <c r="B102">
         <f>_xlfn.XLOOKUP(K102,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>30756.8498977036</v>
       </c>
-      <c r="D102" t="e">
+      <c r="D102" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="J102" t="s">
         <v>13</v>
@@ -11210,16 +11204,16 @@
         <f>_xlfn.XLOOKUP(J103,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B103" t="e">
+      <c r="B103">
         <f>_xlfn.XLOOKUP(K103,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>195746.11795167401</v>
       </c>
-      <c r="D103" t="e">
+      <c r="D103" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="J103" t="s">
         <v>13</v>
@@ -11749,14 +11743,14 @@
       </c>
       <c r="B121" t="str">
         <f>_xlfn.XLOOKUP(K121,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C121">
         <v>60596.188522896802</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
-        <v>ofNL_KZ_A-onNL_SW</v>
+        <v>ofNL_KZ_A-onNL_W</v>
       </c>
       <c r="J121" t="s">
         <v>23</v>
@@ -12047,16 +12041,16 @@
         <f>_xlfn.XLOOKUP(J131,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B131" t="e">
+      <c r="B131">
         <f>_xlfn.XLOOKUP(K131,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>130206.78520254399</v>
       </c>
-      <c r="D131" t="e">
+      <c r="D131" t="str">
         <f t="shared" ref="D131:D194" si="4">A131&amp;"-"&amp;B131</f>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="J131" t="s">
         <v>23</v>
@@ -12074,16 +12068,16 @@
         <f>_xlfn.XLOOKUP(J132,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B132" t="e">
+      <c r="B132">
         <f>_xlfn.XLOOKUP(K132,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>239787.17305983001</v>
       </c>
-      <c r="D132" t="e">
+      <c r="D132" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="J132" t="s">
         <v>23</v>
@@ -12101,16 +12095,16 @@
         <f>_xlfn.XLOOKUP(J133,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B133" t="e">
+      <c r="B133">
         <f>_xlfn.XLOOKUP(K133,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>102316.594455686</v>
       </c>
-      <c r="D133" t="e">
+      <c r="D133" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="J133" t="s">
         <v>23</v>
@@ -12128,16 +12122,16 @@
         <f>_xlfn.XLOOKUP(J134,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B134" t="e">
+      <c r="B134">
         <f>_xlfn.XLOOKUP(K134,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>107286.79054253999</v>
       </c>
-      <c r="D134" t="e">
+      <c r="D134" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="J134" t="s">
         <v>23</v>
@@ -12155,16 +12149,16 @@
         <f>_xlfn.XLOOKUP(J135,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B135" t="e">
+      <c r="B135">
         <f>_xlfn.XLOOKUP(K135,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>80461.330035769002</v>
       </c>
-      <c r="D135" t="e">
+      <c r="D135" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="J135" t="s">
         <v>23</v>
@@ -12182,16 +12176,16 @@
         <f>_xlfn.XLOOKUP(J136,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B136" t="e">
+      <c r="B136">
         <f>_xlfn.XLOOKUP(K136,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>35854.475232938297</v>
       </c>
-      <c r="D136" t="e">
+      <c r="D136" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="J136" t="s">
         <v>23</v>
@@ -12209,16 +12203,16 @@
         <f>_xlfn.XLOOKUP(J137,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B137" t="e">
+      <c r="B137">
         <f>_xlfn.XLOOKUP(K137,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>217255.39641598001</v>
       </c>
-      <c r="D137" t="e">
+      <c r="D137" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="J137" t="s">
         <v>23</v>
@@ -12748,14 +12742,14 @@
       </c>
       <c r="B155" t="str">
         <f>_xlfn.XLOOKUP(K155,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C155">
         <v>127816.754983997</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-onNL_SW</v>
+        <v>ofNL_IJ_A-onNL_W</v>
       </c>
       <c r="J155" t="s">
         <v>14</v>
@@ -13046,16 +13040,16 @@
         <f>_xlfn.XLOOKUP(J165,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B165" t="e">
+      <c r="B165">
         <f>_xlfn.XLOOKUP(K165,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>59411.4914303021</v>
       </c>
-      <c r="D165" t="e">
+      <c r="D165" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="J165" t="s">
         <v>14</v>
@@ -13073,16 +13067,16 @@
         <f>_xlfn.XLOOKUP(J166,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B166" t="e">
+      <c r="B166">
         <f>_xlfn.XLOOKUP(K166,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>200964.318601484</v>
       </c>
-      <c r="D166" t="e">
+      <c r="D166" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="J166" t="s">
         <v>14</v>
@@ -13100,16 +13094,16 @@
         <f>_xlfn.XLOOKUP(J167,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B167" t="e">
+      <c r="B167">
         <f>_xlfn.XLOOKUP(K167,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>34132.464659679601</v>
       </c>
-      <c r="D167" t="e">
+      <c r="D167" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="J167" t="s">
         <v>14</v>
@@ -13127,16 +13121,16 @@
         <f>_xlfn.XLOOKUP(J168,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B168" t="e">
+      <c r="B168">
         <f>_xlfn.XLOOKUP(K168,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>50719.675995306497</v>
       </c>
-      <c r="D168" t="e">
+      <c r="D168" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="J168" t="s">
         <v>14</v>
@@ -13154,16 +13148,16 @@
         <f>_xlfn.XLOOKUP(J169,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B169" t="e">
+      <c r="B169">
         <f>_xlfn.XLOOKUP(K169,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>28184.0204512852</v>
       </c>
-      <c r="D169" t="e">
+      <c r="D169" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="J169" t="s">
         <v>14</v>
@@ -13181,16 +13175,16 @@
         <f>_xlfn.XLOOKUP(J170,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B170" t="e">
+      <c r="B170">
         <f>_xlfn.XLOOKUP(K170,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>39760.463201143502</v>
       </c>
-      <c r="D170" t="e">
+      <c r="D170" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="J170" t="s">
         <v>14</v>
@@ -13208,16 +13202,16 @@
         <f>_xlfn.XLOOKUP(J171,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B171" t="e">
+      <c r="B171">
         <f>_xlfn.XLOOKUP(K171,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>184322.533207261</v>
       </c>
-      <c r="D171" t="e">
+      <c r="D171" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="J171" t="s">
         <v>14</v>
@@ -13747,14 +13741,14 @@
       </c>
       <c r="B189" t="str">
         <f>_xlfn.XLOOKUP(K189,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C189">
         <v>124576.180972134</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="4"/>
-        <v>ofNL_BO_B-onNL_SW</v>
+        <v>ofNL_BO_B-onNL_W</v>
       </c>
       <c r="J189" t="s">
         <v>16</v>
@@ -14045,16 +14039,16 @@
         <f>_xlfn.XLOOKUP(J199,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B199" t="e">
+      <c r="B199">
         <f>_xlfn.XLOOKUP(K199,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C199">
         <v>190757.11732034801</v>
       </c>
-      <c r="D199" t="e">
+      <c r="D199" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J199" t="s">
         <v>16</v>
@@ -14072,16 +14066,16 @@
         <f>_xlfn.XLOOKUP(J200,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B200" t="e">
+      <c r="B200">
         <f>_xlfn.XLOOKUP(K200,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C200">
         <v>335695.77826090698</v>
       </c>
-      <c r="D200" t="e">
+      <c r="D200" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J200" t="s">
         <v>16</v>
@@ -14099,16 +14093,16 @@
         <f>_xlfn.XLOOKUP(J201,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B201" t="e">
+      <c r="B201">
         <f>_xlfn.XLOOKUP(K201,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C201">
         <v>155971.577009598</v>
       </c>
-      <c r="D201" t="e">
+      <c r="D201" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J201" t="s">
         <v>16</v>
@@ -14126,16 +14120,16 @@
         <f>_xlfn.XLOOKUP(J202,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B202" t="e">
+      <c r="B202">
         <f>_xlfn.XLOOKUP(K202,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C202">
         <v>190564.49999800901</v>
       </c>
-      <c r="D202" t="e">
+      <c r="D202" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J202" t="s">
         <v>16</v>
@@ -14153,16 +14147,16 @@
         <f>_xlfn.XLOOKUP(J203,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B203" t="e">
+      <c r="B203">
         <f>_xlfn.XLOOKUP(K203,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C203">
         <v>164162.968454471</v>
       </c>
-      <c r="D203" t="e">
+      <c r="D203" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J203" t="s">
         <v>16</v>
@@ -14180,16 +14174,16 @@
         <f>_xlfn.XLOOKUP(J204,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B204" t="e">
+      <c r="B204">
         <f>_xlfn.XLOOKUP(K204,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>105620.141778031</v>
       </c>
-      <c r="D204" t="e">
+      <c r="D204" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J204" t="s">
         <v>16</v>
@@ -14207,16 +14201,16 @@
         <f>_xlfn.XLOOKUP(J205,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B205" t="e">
+      <c r="B205">
         <f>_xlfn.XLOOKUP(K205,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C205">
         <v>315039.643881728</v>
       </c>
-      <c r="D205" t="e">
+      <c r="D205" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J205" t="s">
         <v>16</v>
@@ -14746,14 +14740,14 @@
       </c>
       <c r="B223" t="str">
         <f>_xlfn.XLOOKUP(K223,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C223">
         <v>133605.792804356</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-onNL_SW</v>
+        <v>ofNL_IJ_G-onNL_W</v>
       </c>
       <c r="J223" t="s">
         <v>28</v>
@@ -15044,16 +15038,16 @@
         <f>_xlfn.XLOOKUP(J233,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B233" t="e">
+      <c r="B233">
         <f>_xlfn.XLOOKUP(K233,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C233">
         <v>52322.141789332301</v>
       </c>
-      <c r="D233" t="e">
+      <c r="D233" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J233" t="s">
         <v>28</v>
@@ -15071,16 +15065,16 @@
         <f>_xlfn.XLOOKUP(J234,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B234" t="e">
+      <c r="B234">
         <f>_xlfn.XLOOKUP(K234,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>184783.79636705201</v>
       </c>
-      <c r="D234" t="e">
+      <c r="D234" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J234" t="s">
         <v>28</v>
@@ -15098,16 +15092,16 @@
         <f>_xlfn.XLOOKUP(J235,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B235" t="e">
+      <c r="B235">
         <f>_xlfn.XLOOKUP(K235,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C235">
         <v>37198.402448161098</v>
       </c>
-      <c r="D235" t="e">
+      <c r="D235" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J235" t="s">
         <v>28</v>
@@ -15125,16 +15119,16 @@
         <f>_xlfn.XLOOKUP(J236,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B236" t="e">
+      <c r="B236">
         <f>_xlfn.XLOOKUP(K236,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C236">
         <v>34510.693526842901</v>
       </c>
-      <c r="D236" t="e">
+      <c r="D236" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J236" t="s">
         <v>28</v>
@@ -15152,16 +15146,16 @@
         <f>_xlfn.XLOOKUP(J237,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B237" t="e">
+      <c r="B237">
         <f>_xlfn.XLOOKUP(K237,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>14151.4404002621</v>
       </c>
-      <c r="D237" t="e">
+      <c r="D237" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J237" t="s">
         <v>28</v>
@@ -15179,16 +15173,16 @@
         <f>_xlfn.XLOOKUP(J238,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B238" t="e">
+      <c r="B238">
         <f>_xlfn.XLOOKUP(K238,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C238">
         <v>53148.3969803211</v>
       </c>
-      <c r="D238" t="e">
+      <c r="D238" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J238" t="s">
         <v>28</v>
@@ -15206,16 +15200,16 @@
         <f>_xlfn.XLOOKUP(J239,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B239" t="e">
+      <c r="B239">
         <f>_xlfn.XLOOKUP(K239,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C239">
         <v>168445.84144773401</v>
       </c>
-      <c r="D239" t="e">
+      <c r="D239" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J239" t="s">
         <v>28</v>
@@ -15745,14 +15739,14 @@
       </c>
       <c r="B257" t="str">
         <f>_xlfn.XLOOKUP(K257,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C257">
         <v>83093.200778342696</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="6"/>
-        <v>onNL_SW-onNL_SW</v>
+        <v>onNL_SW-onNL_W</v>
       </c>
       <c r="J257" t="s">
         <v>0</v>
@@ -16043,16 +16037,16 @@
         <f>_xlfn.XLOOKUP(J267,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B267" t="e">
+      <c r="B267">
         <f>_xlfn.XLOOKUP(K267,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C267">
         <v>220802.75827632201</v>
       </c>
-      <c r="D267" t="e">
+      <c r="D267" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J267" t="s">
         <v>0</v>
@@ -16070,16 +16064,16 @@
         <f>_xlfn.XLOOKUP(J268,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B268" t="e">
+      <c r="B268">
         <f>_xlfn.XLOOKUP(K268,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C268">
         <v>333896.939035255</v>
       </c>
-      <c r="D268" t="e">
+      <c r="D268" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J268" t="s">
         <v>0</v>
@@ -16097,16 +16091,16 @@
         <f>_xlfn.XLOOKUP(J269,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B269" t="e">
+      <c r="B269">
         <f>_xlfn.XLOOKUP(K269,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C269">
         <v>188323.239009877</v>
       </c>
-      <c r="D269" t="e">
+      <c r="D269" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J269" t="s">
         <v>0</v>
@@ -16124,16 +16118,16 @@
         <f>_xlfn.XLOOKUP(J270,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B270" t="e">
+      <c r="B270">
         <f>_xlfn.XLOOKUP(K270,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C270">
         <v>204673.75818960599</v>
       </c>
-      <c r="D270" t="e">
+      <c r="D270" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J270" t="s">
         <v>0</v>
@@ -16151,16 +16145,16 @@
         <f>_xlfn.XLOOKUP(J271,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B271" t="e">
+      <c r="B271">
         <f>_xlfn.XLOOKUP(K271,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C271">
         <v>177531.59650810101</v>
       </c>
-      <c r="D271" t="e">
+      <c r="D271" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J271" t="s">
         <v>0</v>
@@ -16178,16 +16172,16 @@
         <f>_xlfn.XLOOKUP(J272,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B272" t="e">
+      <c r="B272">
         <f>_xlfn.XLOOKUP(K272,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C272">
         <v>123066.493839898</v>
       </c>
-      <c r="D272" t="e">
+      <c r="D272" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J272" t="s">
         <v>0</v>
@@ -16205,16 +16199,16 @@
         <f>_xlfn.XLOOKUP(J273,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B273" t="e">
+      <c r="B273">
         <f>_xlfn.XLOOKUP(K273,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C273">
         <v>309644.99731561099</v>
       </c>
-      <c r="D273" t="e">
+      <c r="D273" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J273" t="s">
         <v>0</v>
@@ -16744,14 +16738,14 @@
       </c>
       <c r="B291" t="str">
         <f>_xlfn.XLOOKUP(K291,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C291">
         <v>68354.0245100959</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="8"/>
-        <v>onNL_CE-onNL_SW</v>
+        <v>onNL_CE-onNL_W</v>
       </c>
       <c r="J291" t="s">
         <v>1</v>
@@ -17042,16 +17036,16 @@
         <f>_xlfn.XLOOKUP(J301,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B301" t="e">
+      <c r="B301">
         <f>_xlfn.XLOOKUP(K301,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C301">
         <v>252510.93945462501</v>
       </c>
-      <c r="D301" t="e">
+      <c r="D301" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J301" t="s">
         <v>1</v>
@@ -17069,16 +17063,16 @@
         <f>_xlfn.XLOOKUP(J302,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B302" t="e">
+      <c r="B302">
         <f>_xlfn.XLOOKUP(K302,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C302">
         <v>302450.30868035799</v>
       </c>
-      <c r="D302" t="e">
+      <c r="D302" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J302" t="s">
         <v>1</v>
@@ -17096,16 +17090,16 @@
         <f>_xlfn.XLOOKUP(J303,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B303" t="e">
+      <c r="B303">
         <f>_xlfn.XLOOKUP(K303,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C303">
         <v>229079.75379608499</v>
       </c>
-      <c r="D303" t="e">
+      <c r="D303" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J303" t="s">
         <v>1</v>
@@ -17123,16 +17117,16 @@
         <f>_xlfn.XLOOKUP(J304,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B304" t="e">
+      <c r="B304">
         <f>_xlfn.XLOOKUP(K304,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C304">
         <v>216168.19040934701</v>
       </c>
-      <c r="D304" t="e">
+      <c r="D304" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J304" t="s">
         <v>1</v>
@@ -17150,16 +17144,16 @@
         <f>_xlfn.XLOOKUP(J305,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B305" t="e">
+      <c r="B305">
         <f>_xlfn.XLOOKUP(K305,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C305">
         <v>194557.83134064899</v>
       </c>
-      <c r="D305" t="e">
+      <c r="D305" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J305" t="s">
         <v>1</v>
@@ -17177,16 +17171,16 @@
         <f>_xlfn.XLOOKUP(J306,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B306" t="e">
+      <c r="B306">
         <f>_xlfn.XLOOKUP(K306,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C306">
         <v>164640.164209407</v>
       </c>
-      <c r="D306" t="e">
+      <c r="D306" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J306" t="s">
         <v>1</v>
@@ -17204,16 +17198,16 @@
         <f>_xlfn.XLOOKUP(J307,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B307" t="e">
+      <c r="B307">
         <f>_xlfn.XLOOKUP(K307,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C307">
         <v>274729.48396645801</v>
       </c>
-      <c r="D307" t="e">
+      <c r="D307" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J307" t="s">
         <v>1</v>
@@ -17743,14 +17737,14 @@
       </c>
       <c r="B325" t="str">
         <f>_xlfn.XLOOKUP(K325,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C325">
         <v>150147.77969088199</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="10"/>
-        <v>onBE-onNL_SW</v>
+        <v>onBE-onNL_W</v>
       </c>
       <c r="J325" t="s">
         <v>2</v>
@@ -18041,16 +18035,16 @@
         <f>_xlfn.XLOOKUP(J335,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B335" t="e">
+      <c r="B335">
         <f>_xlfn.XLOOKUP(K335,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C335">
         <v>323061.25950316002</v>
       </c>
-      <c r="D335" t="e">
+      <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J335" t="s">
         <v>2</v>
@@ -18068,16 +18062,16 @@
         <f>_xlfn.XLOOKUP(J336,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B336" t="e">
+      <c r="B336">
         <f>_xlfn.XLOOKUP(K336,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C336">
         <v>408852.69484884501</v>
       </c>
-      <c r="D336" t="e">
+      <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J336" t="s">
         <v>2</v>
@@ -18095,16 +18089,16 @@
         <f>_xlfn.XLOOKUP(J337,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B337" t="e">
+      <c r="B337">
         <f>_xlfn.XLOOKUP(K337,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C337">
         <v>292354.765399814</v>
       </c>
-      <c r="D337" t="e">
+      <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J337" t="s">
         <v>2</v>
@@ -18122,16 +18116,16 @@
         <f>_xlfn.XLOOKUP(J338,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B338" t="e">
+      <c r="B338">
         <f>_xlfn.XLOOKUP(K338,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C338">
         <v>299262.23658306198</v>
       </c>
-      <c r="D338" t="e">
+      <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J338" t="s">
         <v>2</v>
@@ -18149,16 +18143,16 @@
         <f>_xlfn.XLOOKUP(J339,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B339" t="e">
+      <c r="B339">
         <f>_xlfn.XLOOKUP(K339,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C339">
         <v>273378.81599162298</v>
       </c>
-      <c r="D339" t="e">
+      <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J339" t="s">
         <v>2</v>
@@ -18176,16 +18170,16 @@
         <f>_xlfn.XLOOKUP(J340,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B340" t="e">
+      <c r="B340">
         <f>_xlfn.XLOOKUP(K340,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C340">
         <v>225024.29218901301</v>
       </c>
-      <c r="D340" t="e">
+      <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J340" t="s">
         <v>2</v>
@@ -18203,16 +18197,16 @@
         <f>_xlfn.XLOOKUP(J341,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B341" t="e">
+      <c r="B341">
         <f>_xlfn.XLOOKUP(K341,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C341">
         <v>381999.37566355901</v>
       </c>
-      <c r="D341" t="e">
+      <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J341" t="s">
         <v>2</v>
@@ -18742,14 +18736,14 @@
       </c>
       <c r="B359" t="str">
         <f>_xlfn.XLOOKUP(K359,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C359">
         <v>407114.64743731503</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v>onDE-onNL_SW</v>
+        <v>onDE-onNL_W</v>
       </c>
       <c r="J359" t="s">
         <v>3</v>
@@ -19040,16 +19034,16 @@
         <f>_xlfn.XLOOKUP(J369,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B369" t="e">
+      <c r="B369">
         <f>_xlfn.XLOOKUP(K369,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C369">
         <v>552077.61776594399</v>
       </c>
-      <c r="D369" t="e">
+      <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J369" t="s">
         <v>3</v>
@@ -19067,16 +19061,16 @@
         <f>_xlfn.XLOOKUP(J370,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B370" t="e">
+      <c r="B370">
         <f>_xlfn.XLOOKUP(K370,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C370">
         <v>483156.61882409599</v>
       </c>
-      <c r="D370" t="e">
+      <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J370" t="s">
         <v>3</v>
@@ -19094,16 +19088,16 @@
         <f>_xlfn.XLOOKUP(J371,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B371" t="e">
+      <c r="B371">
         <f>_xlfn.XLOOKUP(K371,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C371">
         <v>542959.31366750901</v>
       </c>
-      <c r="D371" t="e">
+      <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J371" t="s">
         <v>3</v>
@@ -19121,16 +19115,16 @@
         <f>_xlfn.XLOOKUP(J372,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B372" t="e">
+      <c r="B372">
         <f>_xlfn.XLOOKUP(K372,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C372">
         <v>502776.439987569</v>
       </c>
-      <c r="D372" t="e">
+      <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J372" t="s">
         <v>3</v>
@@ -19148,16 +19142,16 @@
         <f>_xlfn.XLOOKUP(J373,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B373" t="e">
+      <c r="B373">
         <f>_xlfn.XLOOKUP(K373,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C373">
         <v>494651.46440569498</v>
       </c>
-      <c r="D373" t="e">
+      <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J373" t="s">
         <v>3</v>
@@ -19175,16 +19169,16 @@
         <f>_xlfn.XLOOKUP(J374,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B374" t="e">
+      <c r="B374">
         <f>_xlfn.XLOOKUP(K374,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C374">
         <v>493784.209868245</v>
       </c>
-      <c r="D374" t="e">
+      <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J374" t="s">
         <v>3</v>
@@ -19202,16 +19196,16 @@
         <f>_xlfn.XLOOKUP(J375,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B375" t="e">
+      <c r="B375">
         <f>_xlfn.XLOOKUP(K375,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C375">
         <v>460380.24266793602</v>
       </c>
-      <c r="D375" t="e">
+      <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J375" t="s">
         <v>3</v>
@@ -19741,14 +19735,14 @@
       </c>
       <c r="B393" t="str">
         <f>_xlfn.XLOOKUP(K393,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C393">
         <v>551716.31086470303</v>
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v>onUK-onNL_SW</v>
+        <v>onUK-onNL_W</v>
       </c>
       <c r="J393" t="s">
         <v>4</v>
@@ -20039,16 +20033,16 @@
         <f>_xlfn.XLOOKUP(J403,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B403" t="e">
+      <c r="B403">
         <f>_xlfn.XLOOKUP(K403,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C403">
         <v>404799.17325211398</v>
       </c>
-      <c r="D403" t="e">
+      <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J403" t="s">
         <v>4</v>
@@ -20066,16 +20060,16 @@
         <f>_xlfn.XLOOKUP(J404,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B404" t="e">
+      <c r="B404">
         <f>_xlfn.XLOOKUP(K404,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C404">
         <v>546416.48772987502</v>
       </c>
-      <c r="D404" t="e">
+      <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J404" t="s">
         <v>4</v>
@@ -20093,16 +20087,16 @@
         <f>_xlfn.XLOOKUP(J405,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B405" t="e">
+      <c r="B405">
         <f>_xlfn.XLOOKUP(K405,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C405">
         <v>408700.96101331402</v>
       </c>
-      <c r="D405" t="e">
+      <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J405" t="s">
         <v>4</v>
@@ -20120,16 +20114,16 @@
         <f>_xlfn.XLOOKUP(J406,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B406" t="e">
+      <c r="B406">
         <f>_xlfn.XLOOKUP(K406,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C406">
         <v>455169.40598444099</v>
       </c>
-      <c r="D406" t="e">
+      <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J406" t="s">
         <v>4</v>
@@ -20147,16 +20141,16 @@
         <f>_xlfn.XLOOKUP(J407,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B407" t="e">
+      <c r="B407">
         <f>_xlfn.XLOOKUP(K407,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C407">
         <v>458313.314083039</v>
       </c>
-      <c r="D407" t="e">
+      <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J407" t="s">
         <v>4</v>
@@ -20174,16 +20168,16 @@
         <f>_xlfn.XLOOKUP(J408,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B408" t="e">
+      <c r="B408">
         <f>_xlfn.XLOOKUP(K408,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C408">
         <v>458738.52649916598</v>
       </c>
-      <c r="D408" t="e">
+      <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J408" t="s">
         <v>4</v>
@@ -20201,16 +20195,16 @@
         <f>_xlfn.XLOOKUP(J409,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B409" t="e">
+      <c r="B409">
         <f>_xlfn.XLOOKUP(K409,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C409">
         <v>551786.118283952</v>
       </c>
-      <c r="D409" t="e">
+      <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J409" t="s">
         <v>4</v>
@@ -20740,14 +20734,14 @@
       </c>
       <c r="B427" t="str">
         <f>_xlfn.XLOOKUP(K427,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C427">
         <v>556130.636818217</v>
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v>onDKW-onNL_SW</v>
+        <v>onDKW-onNL_W</v>
       </c>
       <c r="J427" t="s">
         <v>5</v>
@@ -21038,16 +21032,16 @@
         <f>_xlfn.XLOOKUP(J437,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B437" t="e">
+      <c r="B437">
         <f>_xlfn.XLOOKUP(K437,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C437">
         <v>501405.09455718898</v>
       </c>
-      <c r="D437" t="e">
+      <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J437" t="s">
         <v>5</v>
@@ -21065,16 +21059,16 @@
         <f>_xlfn.XLOOKUP(J438,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B438" t="e">
+      <c r="B438">
         <f>_xlfn.XLOOKUP(K438,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C438">
         <v>322672.14027199801</v>
       </c>
-      <c r="D438" t="e">
+      <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J438" t="s">
         <v>5</v>
@@ -21092,16 +21086,16 @@
         <f>_xlfn.XLOOKUP(J439,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B439" t="e">
+      <c r="B439">
         <f>_xlfn.XLOOKUP(K439,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C439">
         <v>527832.80258658703</v>
       </c>
-      <c r="D439" t="e">
+      <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J439" t="s">
         <v>5</v>
@@ -21119,16 +21113,16 @@
         <f>_xlfn.XLOOKUP(J440,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B440" t="e">
+      <c r="B440">
         <f>_xlfn.XLOOKUP(K440,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C440">
         <v>473290.932268965</v>
       </c>
-      <c r="D440" t="e">
+      <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J440" t="s">
         <v>5</v>
@@ -21146,16 +21140,16 @@
         <f>_xlfn.XLOOKUP(J441,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B441" t="e">
+      <c r="B441">
         <f>_xlfn.XLOOKUP(K441,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C441">
         <v>495166.13803063502</v>
       </c>
-      <c r="D441" t="e">
+      <c r="D441" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J441" t="s">
         <v>5</v>
@@ -21173,16 +21167,16 @@
         <f>_xlfn.XLOOKUP(J442,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B442" t="e">
+      <c r="B442">
         <f>_xlfn.XLOOKUP(K442,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C442">
         <v>549321.10156864801</v>
       </c>
-      <c r="D442" t="e">
+      <c r="D442" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J442" t="s">
         <v>5</v>
@@ -21200,16 +21194,16 @@
         <f>_xlfn.XLOOKUP(J443,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B443" t="e">
+      <c r="B443">
         <f>_xlfn.XLOOKUP(K443,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C443">
         <v>338735.75530750002</v>
       </c>
-      <c r="D443" t="e">
+      <c r="D443" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J443" t="s">
         <v>5</v>
@@ -21739,14 +21733,14 @@
       </c>
       <c r="B461" t="str">
         <f>_xlfn.XLOOKUP(K461,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C461">
         <v>101655.52976573</v>
       </c>
       <c r="D461" t="str">
         <f t="shared" si="14"/>
-        <v>onNL_E-onNL_SW</v>
+        <v>onNL_E-onNL_W</v>
       </c>
       <c r="J461" t="s">
         <v>6</v>
@@ -22037,16 +22031,16 @@
         <f>_xlfn.XLOOKUP(J471,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B471" t="e">
+      <c r="B471">
         <f>_xlfn.XLOOKUP(K471,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C471">
         <v>235269.70260184401</v>
       </c>
-      <c r="D471" t="e">
+      <c r="D471" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J471" t="s">
         <v>6</v>
@@ -22064,16 +22058,16 @@
         <f>_xlfn.XLOOKUP(J472,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B472" t="e">
+      <c r="B472">
         <f>_xlfn.XLOOKUP(K472,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C472">
         <v>231831.08455602801</v>
       </c>
-      <c r="D472" t="e">
+      <c r="D472" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J472" t="s">
         <v>6</v>
@@ -22091,16 +22085,16 @@
         <f>_xlfn.XLOOKUP(J473,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B473" t="e">
+      <c r="B473">
         <f>_xlfn.XLOOKUP(K473,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C473">
         <v>223025.65435875201</v>
       </c>
-      <c r="D473" t="e">
+      <c r="D473" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J473" t="s">
         <v>6</v>
@@ -22118,16 +22112,16 @@
         <f>_xlfn.XLOOKUP(J474,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B474" t="e">
+      <c r="B474">
         <f>_xlfn.XLOOKUP(K474,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C474">
         <v>188360.705040998</v>
       </c>
-      <c r="D474" t="e">
+      <c r="D474" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J474" t="s">
         <v>6</v>
@@ -22145,16 +22139,16 @@
         <f>_xlfn.XLOOKUP(J475,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B475" t="e">
+      <c r="B475">
         <f>_xlfn.XLOOKUP(K475,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C475">
         <v>176142.07500253999</v>
       </c>
-      <c r="D475" t="e">
+      <c r="D475" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J475" t="s">
         <v>6</v>
@@ -22172,16 +22166,16 @@
         <f>_xlfn.XLOOKUP(J476,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B476" t="e">
+      <c r="B476">
         <f>_xlfn.XLOOKUP(K476,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C476">
         <v>174614.91081389401</v>
       </c>
-      <c r="D476" t="e">
+      <c r="D476" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J476" t="s">
         <v>6</v>
@@ -22199,16 +22193,16 @@
         <f>_xlfn.XLOOKUP(J477,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B477" t="e">
+      <c r="B477">
         <f>_xlfn.XLOOKUP(K477,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C477">
         <v>203541.74250254</v>
       </c>
-      <c r="D477" t="e">
+      <c r="D477" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J477" t="s">
         <v>6</v>
@@ -22738,14 +22732,14 @@
       </c>
       <c r="B495" t="str">
         <f>_xlfn.XLOOKUP(K495,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C495">
         <v>959025.04167433397</v>
       </c>
       <c r="D495" t="str">
         <f t="shared" si="14"/>
-        <v>onNOS-onNL_SW</v>
+        <v>onNOS-onNL_W</v>
       </c>
       <c r="J495" t="s">
         <v>7</v>
@@ -23036,16 +23030,16 @@
         <f>_xlfn.XLOOKUP(J505,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B505" t="e">
+      <c r="B505">
         <f>_xlfn.XLOOKUP(K505,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C505">
         <v>838419.61463610898</v>
       </c>
-      <c r="D505" t="e">
+      <c r="D505" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J505" t="s">
         <v>7</v>
@@ -23063,16 +23057,16 @@
         <f>_xlfn.XLOOKUP(J506,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B506" t="e">
+      <c r="B506">
         <f>_xlfn.XLOOKUP(K506,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C506">
         <v>698371.16643588</v>
       </c>
-      <c r="D506" t="e">
+      <c r="D506" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J506" t="s">
         <v>7</v>
@@ -23090,16 +23084,16 @@
         <f>_xlfn.XLOOKUP(J507,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B507" t="e">
+      <c r="B507">
         <f>_xlfn.XLOOKUP(K507,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C507">
         <v>872343.91255063599</v>
       </c>
-      <c r="D507" t="e">
+      <c r="D507" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J507" t="s">
         <v>7</v>
@@ -23117,16 +23111,16 @@
         <f>_xlfn.XLOOKUP(J508,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B508" t="e">
+      <c r="B508">
         <f>_xlfn.XLOOKUP(K508,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C508">
         <v>833147.52352562197</v>
       </c>
-      <c r="D508" t="e">
+      <c r="D508" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J508" t="s">
         <v>7</v>
@@ -23144,16 +23138,16 @@
         <f>_xlfn.XLOOKUP(J509,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B509" t="e">
+      <c r="B509">
         <f>_xlfn.XLOOKUP(K509,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C509">
         <v>859999.16807018803</v>
       </c>
-      <c r="D509" t="e">
+      <c r="D509" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J509" t="s">
         <v>7</v>
@@ -23171,16 +23165,16 @@
         <f>_xlfn.XLOOKUP(J510,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B510" t="e">
+      <c r="B510">
         <f>_xlfn.XLOOKUP(K510,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C510">
         <v>918793.90570393903</v>
       </c>
-      <c r="D510" t="e">
+      <c r="D510" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J510" t="s">
         <v>7</v>
@@ -23198,16 +23192,16 @@
         <f>_xlfn.XLOOKUP(J511,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B511" t="e">
+      <c r="B511">
         <f>_xlfn.XLOOKUP(K511,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C511">
         <v>724324.03251885704</v>
       </c>
-      <c r="D511" t="e">
+      <c r="D511" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J511" t="s">
         <v>7</v>
@@ -23737,14 +23731,14 @@
       </c>
       <c r="B529" t="str">
         <f>_xlfn.XLOOKUP(K529,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C529">
         <v>73098.190833047396</v>
       </c>
       <c r="D529" t="str">
         <f t="shared" si="16"/>
-        <v>onNL_NW-onNL_SW</v>
+        <v>onNL_NW-onNL_W</v>
       </c>
       <c r="J529" t="s">
         <v>8</v>
@@ -24035,16 +24029,16 @@
         <f>_xlfn.XLOOKUP(J539,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B539" t="e">
+      <c r="B539">
         <f>_xlfn.XLOOKUP(K539,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C539">
         <v>157710.828956179</v>
       </c>
-      <c r="D539" t="e">
+      <c r="D539" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J539" t="s">
         <v>8</v>
@@ -24062,16 +24056,16 @@
         <f>_xlfn.XLOOKUP(J540,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B540" t="e">
+      <c r="B540">
         <f>_xlfn.XLOOKUP(K540,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C540">
         <v>190144.53432957301</v>
       </c>
-      <c r="D540" t="e">
+      <c r="D540" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J540" t="s">
         <v>8</v>
@@ -24089,16 +24083,16 @@
         <f>_xlfn.XLOOKUP(J541,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B541" t="e">
+      <c r="B541">
         <f>_xlfn.XLOOKUP(K541,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C541">
         <v>145622.03921547101</v>
       </c>
-      <c r="D541" t="e">
+      <c r="D541" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J541" t="s">
         <v>8</v>
@@ -24116,16 +24110,16 @@
         <f>_xlfn.XLOOKUP(J542,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B542" t="e">
+      <c r="B542">
         <f>_xlfn.XLOOKUP(K542,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C542">
         <v>112050.812462159</v>
       </c>
-      <c r="D542" t="e">
+      <c r="D542" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J542" t="s">
         <v>8</v>
@@ -24143,16 +24137,16 @@
         <f>_xlfn.XLOOKUP(J543,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B543" t="e">
+      <c r="B543">
         <f>_xlfn.XLOOKUP(K543,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C543">
         <v>98374.122295964102</v>
       </c>
-      <c r="D543" t="e">
+      <c r="D543" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J543" t="s">
         <v>8</v>
@@ -24170,16 +24164,16 @@
         <f>_xlfn.XLOOKUP(J544,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B544" t="e">
+      <c r="B544">
         <f>_xlfn.XLOOKUP(K544,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C544">
         <v>103752.93805857201</v>
       </c>
-      <c r="D544" t="e">
+      <c r="D544" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J544" t="s">
         <v>8</v>
@@ -24197,16 +24191,16 @@
         <f>_xlfn.XLOOKUP(J545,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B545" t="e">
+      <c r="B545">
         <f>_xlfn.XLOOKUP(K545,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C545">
         <v>163330.295064754</v>
       </c>
-      <c r="D545" t="e">
+      <c r="D545" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J545" t="s">
         <v>8</v>
@@ -24736,14 +24730,14 @@
       </c>
       <c r="B563" t="str">
         <f>_xlfn.XLOOKUP(K563,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C563">
         <v>160215.71769018899</v>
       </c>
       <c r="D563" t="str">
         <f t="shared" si="16"/>
-        <v>onNL_NE-onNL_SW</v>
+        <v>onNL_NE-onNL_W</v>
       </c>
       <c r="J563" t="s">
         <v>9</v>
@@ -25034,16 +25028,16 @@
         <f>_xlfn.XLOOKUP(J573,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B573" t="e">
+      <c r="B573">
         <f>_xlfn.XLOOKUP(K573,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C573">
         <v>206407.07441153101</v>
       </c>
-      <c r="D573" t="e">
+      <c r="D573" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J573" t="s">
         <v>9</v>
@@ -25061,16 +25055,16 @@
         <f>_xlfn.XLOOKUP(J574,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B574" t="e">
+      <c r="B574">
         <f>_xlfn.XLOOKUP(K574,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C574">
         <v>143550.81084519299</v>
       </c>
-      <c r="D574" t="e">
+      <c r="D574" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J574" t="s">
         <v>9</v>
@@ -25088,16 +25082,16 @@
         <f>_xlfn.XLOOKUP(J575,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B575" t="e">
+      <c r="B575">
         <f>_xlfn.XLOOKUP(K575,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C575">
         <v>208570.39962675999</v>
       </c>
-      <c r="D575" t="e">
+      <c r="D575" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J575" t="s">
         <v>9</v>
@@ -25115,16 +25109,16 @@
         <f>_xlfn.XLOOKUP(J576,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B576" t="e">
+      <c r="B576">
         <f>_xlfn.XLOOKUP(K576,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C576">
         <v>156208.50423409801</v>
       </c>
-      <c r="D576" t="e">
+      <c r="D576" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J576" t="s">
         <v>9</v>
@@ -25142,16 +25136,16 @@
         <f>_xlfn.XLOOKUP(J577,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B577" t="e">
+      <c r="B577">
         <f>_xlfn.XLOOKUP(K577,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C577">
         <v>158291.16312514301</v>
       </c>
-      <c r="D577" t="e">
+      <c r="D577" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J577" t="s">
         <v>9</v>
@@ -25169,16 +25163,16 @@
         <f>_xlfn.XLOOKUP(J578,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B578" t="e">
+      <c r="B578">
         <f>_xlfn.XLOOKUP(K578,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C578">
         <v>187488.57501107801</v>
       </c>
-      <c r="D578" t="e">
+      <c r="D578" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J578" t="s">
         <v>9</v>
@@ -25196,16 +25190,16 @@
         <f>_xlfn.XLOOKUP(J579,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B579" t="e">
+      <c r="B579">
         <f>_xlfn.XLOOKUP(K579,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C579">
         <v>115873.821706517</v>
       </c>
-      <c r="D579" t="e">
+      <c r="D579" t="str">
         <f t="shared" ref="D579:D642" si="18">A579&amp;"-"&amp;B579</f>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J579" t="s">
         <v>9</v>
@@ -25735,14 +25729,14 @@
       </c>
       <c r="B597" t="str">
         <f>_xlfn.XLOOKUP(K597,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C597">
         <v>46910.149427661199</v>
       </c>
       <c r="D597" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_CW-onNL_SW</v>
+        <v>onNL_CW-onNL_W</v>
       </c>
       <c r="J597" t="s">
         <v>10</v>
@@ -26033,16 +26027,16 @@
         <f>_xlfn.XLOOKUP(J607,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B607" t="e">
+      <c r="B607">
         <f>_xlfn.XLOOKUP(K607,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C607">
         <v>221946.17291121901</v>
       </c>
-      <c r="D607" t="e">
+      <c r="D607" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J607" t="s">
         <v>10</v>
@@ -26060,16 +26054,16 @@
         <f>_xlfn.XLOOKUP(J608,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B608" t="e">
+      <c r="B608">
         <f>_xlfn.XLOOKUP(K608,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C608">
         <v>307664.23538687301</v>
       </c>
-      <c r="D608" t="e">
+      <c r="D608" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J608" t="s">
         <v>10</v>
@@ -26087,16 +26081,16 @@
         <f>_xlfn.XLOOKUP(J609,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B609" t="e">
+      <c r="B609">
         <f>_xlfn.XLOOKUP(K609,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C609">
         <v>193467.72291904301</v>
       </c>
-      <c r="D609" t="e">
+      <c r="D609" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J609" t="s">
         <v>10</v>
@@ -26114,16 +26108,16 @@
         <f>_xlfn.XLOOKUP(J610,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B610" t="e">
+      <c r="B610">
         <f>_xlfn.XLOOKUP(K610,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C610">
         <v>194998.62483314899</v>
       </c>
-      <c r="D610" t="e">
+      <c r="D610" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J610" t="s">
         <v>10</v>
@@ -26141,16 +26135,16 @@
         <f>_xlfn.XLOOKUP(J611,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B611" t="e">
+      <c r="B611">
         <f>_xlfn.XLOOKUP(K611,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C611">
         <v>169592.34658264401</v>
       </c>
-      <c r="D611" t="e">
+      <c r="D611" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J611" t="s">
         <v>10</v>
@@ -26168,16 +26162,16 @@
         <f>_xlfn.XLOOKUP(J612,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B612" t="e">
+      <c r="B612">
         <f>_xlfn.XLOOKUP(K612,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C612">
         <v>125761.73073086</v>
       </c>
-      <c r="D612" t="e">
+      <c r="D612" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J612" t="s">
         <v>10</v>
@@ -26195,16 +26189,16 @@
         <f>_xlfn.XLOOKUP(J613,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B613" t="e">
+      <c r="B613">
         <f>_xlfn.XLOOKUP(K613,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C613">
         <v>281644.17606710899</v>
       </c>
-      <c r="D613" t="e">
+      <c r="D613" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J613" t="s">
         <v>10</v>
@@ -26220,7 +26214,7 @@
     <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" t="str">
         <f>_xlfn.XLOOKUP(J614,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B614" t="str">
         <f>_xlfn.XLOOKUP(K614,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26231,7 +26225,7 @@
       </c>
       <c r="D614" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_BO_A</v>
+        <v>onNL_W-ofNL_BO_A</v>
       </c>
       <c r="J614" t="s">
         <v>11</v>
@@ -26250,7 +26244,7 @@
     <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="str">
         <f>_xlfn.XLOOKUP(J615,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B615" t="str">
         <f>_xlfn.XLOOKUP(K615,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26261,7 +26255,7 @@
       </c>
       <c r="D615" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KZ_B</v>
+        <v>onNL_W-ofNL_KZ_B</v>
       </c>
       <c r="J615" t="s">
         <v>11</v>
@@ -26280,7 +26274,7 @@
     <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" t="str">
         <f>_xlfn.XLOOKUP(J616,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B616" t="str">
         <f>_xlfn.XLOOKUP(K616,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26291,7 +26285,7 @@
       </c>
       <c r="D616" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_B</v>
+        <v>onNL_W-ofNL_IJ_B</v>
       </c>
       <c r="J616" t="s">
         <v>11</v>
@@ -26310,7 +26304,7 @@
     <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="str">
         <f>_xlfn.XLOOKUP(J617,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B617" t="str">
         <f>_xlfn.XLOOKUP(K617,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26321,7 +26315,7 @@
       </c>
       <c r="D617" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KZ_A</v>
+        <v>onNL_W-ofNL_KZ_A</v>
       </c>
       <c r="J617" t="s">
         <v>11</v>
@@ -26340,7 +26334,7 @@
     <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="str">
         <f>_xlfn.XLOOKUP(J618,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B618" t="str">
         <f>_xlfn.XLOOKUP(K618,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26351,7 +26345,7 @@
       </c>
       <c r="D618" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_A</v>
+        <v>onNL_W-ofNL_IJ_A</v>
       </c>
       <c r="J618" t="s">
         <v>11</v>
@@ -26370,7 +26364,7 @@
     <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="str">
         <f>_xlfn.XLOOKUP(J619,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B619" t="str">
         <f>_xlfn.XLOOKUP(K619,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26381,7 +26375,7 @@
       </c>
       <c r="D619" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_BO_B</v>
+        <v>onNL_W-ofNL_BO_B</v>
       </c>
       <c r="J619" t="s">
         <v>11</v>
@@ -26400,7 +26394,7 @@
     <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" t="str">
         <f>_xlfn.XLOOKUP(J620,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B620" t="str">
         <f>_xlfn.XLOOKUP(K620,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26411,7 +26405,7 @@
       </c>
       <c r="D620" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_G</v>
+        <v>onNL_W-ofNL_IJ_G</v>
       </c>
       <c r="J620" t="s">
         <v>11</v>
@@ -26430,7 +26424,7 @@
     <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" t="str">
         <f>_xlfn.XLOOKUP(J621,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B621" t="str">
         <f>_xlfn.XLOOKUP(K621,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26441,7 +26435,7 @@
       </c>
       <c r="D621" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_SW</v>
+        <v>onNL_W-onNL_SW</v>
       </c>
       <c r="J621" t="s">
         <v>11</v>
@@ -26460,7 +26454,7 @@
     <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" t="str">
         <f>_xlfn.XLOOKUP(J622,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B622" t="str">
         <f>_xlfn.XLOOKUP(K622,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26471,7 +26465,7 @@
       </c>
       <c r="D622" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_CE</v>
+        <v>onNL_W-onNL_CE</v>
       </c>
       <c r="J622" t="s">
         <v>11</v>
@@ -26490,7 +26484,7 @@
     <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" t="str">
         <f>_xlfn.XLOOKUP(J623,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B623" t="str">
         <f>_xlfn.XLOOKUP(K623,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26501,7 +26495,7 @@
       </c>
       <c r="D623" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onBE</v>
+        <v>onNL_W-onBE</v>
       </c>
       <c r="J623" t="s">
         <v>11</v>
@@ -26520,7 +26514,7 @@
     <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" t="str">
         <f>_xlfn.XLOOKUP(J624,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B624" t="str">
         <f>_xlfn.XLOOKUP(K624,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26531,7 +26525,7 @@
       </c>
       <c r="D624" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onDE</v>
+        <v>onNL_W-onDE</v>
       </c>
       <c r="J624" t="s">
         <v>11</v>
@@ -26550,7 +26544,7 @@
     <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="str">
         <f>_xlfn.XLOOKUP(J625,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B625" t="str">
         <f>_xlfn.XLOOKUP(K625,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26561,7 +26555,7 @@
       </c>
       <c r="D625" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onUK</v>
+        <v>onNL_W-onUK</v>
       </c>
       <c r="J625" t="s">
         <v>11</v>
@@ -26580,7 +26574,7 @@
     <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="str">
         <f>_xlfn.XLOOKUP(J626,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B626" t="str">
         <f>_xlfn.XLOOKUP(K626,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26591,7 +26585,7 @@
       </c>
       <c r="D626" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onDKW</v>
+        <v>onNL_W-onDKW</v>
       </c>
       <c r="J626" t="s">
         <v>11</v>
@@ -26610,7 +26604,7 @@
     <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" t="str">
         <f>_xlfn.XLOOKUP(J627,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B627" t="str">
         <f>_xlfn.XLOOKUP(K627,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26621,7 +26615,7 @@
       </c>
       <c r="D627" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_E</v>
+        <v>onNL_W-onNL_E</v>
       </c>
       <c r="J627" t="s">
         <v>11</v>
@@ -26640,7 +26634,7 @@
     <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="str">
         <f>_xlfn.XLOOKUP(J628,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B628" t="str">
         <f>_xlfn.XLOOKUP(K628,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26651,7 +26645,7 @@
       </c>
       <c r="D628" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNOS</v>
+        <v>onNL_W-onNOS</v>
       </c>
       <c r="J628" t="s">
         <v>11</v>
@@ -26670,7 +26664,7 @@
     <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="str">
         <f>_xlfn.XLOOKUP(J629,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B629" t="str">
         <f>_xlfn.XLOOKUP(K629,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26681,7 +26675,7 @@
       </c>
       <c r="D629" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_NW</v>
+        <v>onNL_W-onNL_NW</v>
       </c>
       <c r="J629" t="s">
         <v>11</v>
@@ -26700,7 +26694,7 @@
     <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="str">
         <f>_xlfn.XLOOKUP(J630,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B630" t="str">
         <f>_xlfn.XLOOKUP(K630,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26711,7 +26705,7 @@
       </c>
       <c r="D630" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_NE</v>
+        <v>onNL_W-onNL_NE</v>
       </c>
       <c r="J630" t="s">
         <v>11</v>
@@ -26730,7 +26724,7 @@
     <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="str">
         <f>_xlfn.XLOOKUP(J631,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B631" t="str">
         <f>_xlfn.XLOOKUP(K631,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26741,7 +26735,7 @@
       </c>
       <c r="D631" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_CW</v>
+        <v>onNL_W-onNL_CW</v>
       </c>
       <c r="J631" t="s">
         <v>11</v>
@@ -26760,7 +26754,7 @@
     <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" t="str">
         <f>_xlfn.XLOOKUP(J632,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B632" t="str">
         <f>_xlfn.XLOOKUP(K632,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26771,7 +26765,7 @@
       </c>
       <c r="D632" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_SE</v>
+        <v>onNL_W-onNL_SE</v>
       </c>
       <c r="J632" t="s">
         <v>11</v>
@@ -26790,7 +26784,7 @@
     <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" t="str">
         <f>_xlfn.XLOOKUP(J633,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B633" t="str">
         <f>_xlfn.XLOOKUP(K633,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26801,7 +26795,7 @@
       </c>
       <c r="D633" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_EG</v>
+        <v>onNL_W-ofNL_EG</v>
       </c>
       <c r="J633" t="s">
         <v>11</v>
@@ -26820,7 +26814,7 @@
     <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" t="str">
         <f>_xlfn.XLOOKUP(J634,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B634" t="str">
         <f>_xlfn.XLOOKUP(K634,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26831,7 +26825,7 @@
       </c>
       <c r="D634" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_PA</v>
+        <v>onNL_W-ofNL_PA</v>
       </c>
       <c r="J634" t="s">
         <v>11</v>
@@ -26850,7 +26844,7 @@
     <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" t="str">
         <f>_xlfn.XLOOKUP(J635,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B635" t="str">
         <f>_xlfn.XLOOKUP(K635,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26861,7 +26855,7 @@
       </c>
       <c r="D635" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_LU</v>
+        <v>onNL_W-ofNL_LU</v>
       </c>
       <c r="J635" t="s">
         <v>11</v>
@@ -26880,7 +26874,7 @@
     <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" t="str">
         <f>_xlfn.XLOOKUP(J636,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B636" t="str">
         <f>_xlfn.XLOOKUP(K636,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26891,7 +26885,7 @@
       </c>
       <c r="D636" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_GE_B</v>
+        <v>onNL_W-ofNL_GE_B</v>
       </c>
       <c r="J636" t="s">
         <v>11</v>
@@ -26910,7 +26904,7 @@
     <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" t="str">
         <f>_xlfn.XLOOKUP(J637,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B637" t="str">
         <f>_xlfn.XLOOKUP(K637,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26921,7 +26915,7 @@
       </c>
       <c r="D637" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_GE_A</v>
+        <v>onNL_W-ofNL_GE_A</v>
       </c>
       <c r="J637" t="s">
         <v>11</v>
@@ -26940,7 +26934,7 @@
     <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" t="str">
         <f>_xlfn.XLOOKUP(J638,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B638" t="str">
         <f>_xlfn.XLOOKUP(K638,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26951,7 +26945,7 @@
       </c>
       <c r="D638" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KN</v>
+        <v>onNL_W-ofNL_KN</v>
       </c>
       <c r="J638" t="s">
         <v>11</v>
@@ -26970,7 +26964,7 @@
     <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" t="str">
         <f>_xlfn.XLOOKUP(J639,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B639" t="str">
         <f>_xlfn.XLOOKUP(K639,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -26981,7 +26975,7 @@
       </c>
       <c r="D639" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KW_A</v>
+        <v>onNL_W-ofNL_KW_A</v>
       </c>
       <c r="J639" t="s">
         <v>11</v>
@@ -27000,7 +26994,7 @@
     <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" t="str">
         <f>_xlfn.XLOOKUP(J640,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B640" t="str">
         <f>_xlfn.XLOOKUP(K640,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -27011,7 +27005,7 @@
       </c>
       <c r="D640" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KW_B</v>
+        <v>onNL_W-ofNL_KW_B</v>
       </c>
       <c r="J640" t="s">
         <v>11</v>
@@ -27030,18 +27024,18 @@
     <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" t="str">
         <f>_xlfn.XLOOKUP(J641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B641" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B641">
         <f>_xlfn.XLOOKUP(K641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C641">
         <v>185717.44992658001</v>
       </c>
-      <c r="D641" t="e">
+      <c r="D641" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J641" t="s">
         <v>11</v>
@@ -27057,18 +27051,18 @@
     <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" t="str">
         <f>_xlfn.XLOOKUP(J642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B642" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B642">
         <f>_xlfn.XLOOKUP(K642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C642">
         <v>260754.08906105699</v>
       </c>
-      <c r="D642" t="e">
+      <c r="D642" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J642" t="s">
         <v>11</v>
@@ -27084,18 +27078,18 @@
     <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" t="str">
         <f>_xlfn.XLOOKUP(J643,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B643" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B643">
         <f>_xlfn.XLOOKUP(K643,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C643">
         <v>161006.521564044</v>
       </c>
-      <c r="D643" t="e">
+      <c r="D643" t="str">
         <f t="shared" ref="D643:D706" si="20">A643&amp;"-"&amp;B643</f>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J643" t="s">
         <v>11</v>
@@ -27111,18 +27105,18 @@
     <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" t="str">
         <f>_xlfn.XLOOKUP(J644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B644" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B644">
         <f>_xlfn.XLOOKUP(K644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C644">
         <v>153196.85969856899</v>
       </c>
-      <c r="D644" t="e">
+      <c r="D644" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J644" t="s">
         <v>11</v>
@@ -27138,18 +27132,18 @@
     <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" t="str">
         <f>_xlfn.XLOOKUP(J645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B645" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B645">
         <f>_xlfn.XLOOKUP(K645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C645">
         <v>129470.70179263101</v>
       </c>
-      <c r="D645" t="e">
+      <c r="D645" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J645" t="s">
         <v>11</v>
@@ -27165,18 +27159,18 @@
     <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" t="str">
         <f>_xlfn.XLOOKUP(J646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B646" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B646">
         <f>_xlfn.XLOOKUP(K646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C646">
         <v>96348.178368929599</v>
       </c>
-      <c r="D646" t="e">
+      <c r="D646" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J646" t="s">
         <v>11</v>
@@ -27192,18 +27186,18 @@
     <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" t="str">
         <f>_xlfn.XLOOKUP(J647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B647" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B647">
         <f>_xlfn.XLOOKUP(K647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C647">
         <v>234773.42443201199</v>
       </c>
-      <c r="D647" t="e">
+      <c r="D647" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J647" t="s">
         <v>11</v>
@@ -27763,14 +27757,14 @@
       </c>
       <c r="B666" t="str">
         <f>_xlfn.XLOOKUP(K666,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C666">
         <v>122233.015251859</v>
       </c>
       <c r="D666" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SE-onNL_SW</v>
+        <v>onNL_SE-onNL_W</v>
       </c>
       <c r="J666" t="s">
         <v>12</v>
@@ -28031,16 +28025,16 @@
         <f>_xlfn.XLOOKUP(J675,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B675" t="e">
+      <c r="B675">
         <f>_xlfn.XLOOKUP(K675,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C675">
         <v>305810.16450754198</v>
       </c>
-      <c r="D675" t="e">
+      <c r="D675" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J675" t="s">
         <v>12</v>
@@ -28058,16 +28052,16 @@
         <f>_xlfn.XLOOKUP(J676,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B676" t="e">
+      <c r="B676">
         <f>_xlfn.XLOOKUP(K676,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C676">
         <v>342139.68119642697</v>
       </c>
-      <c r="D676" t="e">
+      <c r="D676" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J676" t="s">
         <v>12</v>
@@ -28085,16 +28079,16 @@
         <f>_xlfn.XLOOKUP(J677,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B677" t="e">
+      <c r="B677">
         <f>_xlfn.XLOOKUP(K677,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C677">
         <v>282898.16200192599</v>
       </c>
-      <c r="D677" t="e">
+      <c r="D677" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J677" t="s">
         <v>12</v>
@@ -28112,16 +28106,16 @@
         <f>_xlfn.XLOOKUP(J678,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B678" t="e">
+      <c r="B678">
         <f>_xlfn.XLOOKUP(K678,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C678">
         <v>267961.25650336302</v>
       </c>
-      <c r="D678" t="e">
+      <c r="D678" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J678" t="s">
         <v>12</v>
@@ -28139,16 +28133,16 @@
         <f>_xlfn.XLOOKUP(J679,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B679" t="e">
+      <c r="B679">
         <f>_xlfn.XLOOKUP(K679,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C679">
         <v>247322.45724740301</v>
       </c>
-      <c r="D679" t="e">
+      <c r="D679" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J679" t="s">
         <v>12</v>
@@ -28166,16 +28160,16 @@
         <f>_xlfn.XLOOKUP(J680,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B680" t="e">
+      <c r="B680">
         <f>_xlfn.XLOOKUP(K680,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C680">
         <v>218468.16264544</v>
       </c>
-      <c r="D680" t="e">
+      <c r="D680" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J680" t="s">
         <v>12</v>
@@ -28193,16 +28187,16 @@
         <f>_xlfn.XLOOKUP(J681,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B681" t="e">
+      <c r="B681">
         <f>_xlfn.XLOOKUP(K681,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C681">
         <v>313941.84200454399</v>
       </c>
-      <c r="D681" t="e">
+      <c r="D681" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J681" t="s">
         <v>12</v>
@@ -28762,14 +28756,14 @@
       </c>
       <c r="B700" t="str">
         <f>_xlfn.XLOOKUP(K700,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C700">
         <v>71264.063469820598</v>
       </c>
       <c r="D700" t="str">
         <f t="shared" si="20"/>
-        <v>ofNL_EG-onNL_SW</v>
+        <v>ofNL_EG-onNL_W</v>
       </c>
       <c r="J700" t="s">
         <v>17</v>
@@ -29030,16 +29024,16 @@
         <f>_xlfn.XLOOKUP(J709,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B709" t="e">
+      <c r="B709">
         <f>_xlfn.XLOOKUP(K709,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C709">
         <v>118733.85266061001</v>
       </c>
-      <c r="D709" t="e">
+      <c r="D709" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J709" t="s">
         <v>17</v>
@@ -29057,16 +29051,16 @@
         <f>_xlfn.XLOOKUP(J710,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B710" t="e">
+      <c r="B710">
         <f>_xlfn.XLOOKUP(K710,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C710">
         <v>200658.75444033899</v>
       </c>
-      <c r="D710" t="e">
+      <c r="D710" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J710" t="s">
         <v>17</v>
@@ -29084,16 +29078,16 @@
         <f>_xlfn.XLOOKUP(J711,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B711" t="e">
+      <c r="B711">
         <f>_xlfn.XLOOKUP(K711,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C711">
         <v>100122.902332649</v>
       </c>
-      <c r="D711" t="e">
+      <c r="D711" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J711" t="s">
         <v>17</v>
@@ -29111,16 +29105,16 @@
         <f>_xlfn.XLOOKUP(J712,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B712" t="e">
+      <c r="B712">
         <f>_xlfn.XLOOKUP(K712,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C712">
         <v>82078.612033989004</v>
       </c>
-      <c r="D712" t="e">
+      <c r="D712" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J712" t="s">
         <v>17</v>
@@ -29138,16 +29132,16 @@
         <f>_xlfn.XLOOKUP(J713,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B713" t="e">
+      <c r="B713">
         <f>_xlfn.XLOOKUP(K713,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C713">
         <v>59797.892529909303</v>
       </c>
-      <c r="D713" t="e">
+      <c r="D713" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J713" t="s">
         <v>17</v>
@@ -29165,16 +29159,16 @@
         <f>_xlfn.XLOOKUP(J714,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B714" t="e">
+      <c r="B714">
         <f>_xlfn.XLOOKUP(K714,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C714">
         <v>53715.824863438502</v>
       </c>
-      <c r="D714" t="e">
+      <c r="D714" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J714" t="s">
         <v>17</v>
@@ -29192,16 +29186,16 @@
         <f>_xlfn.XLOOKUP(J715,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B715" t="e">
+      <c r="B715">
         <f>_xlfn.XLOOKUP(K715,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C715">
         <v>177202.333136756</v>
       </c>
-      <c r="D715" t="e">
+      <c r="D715" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J715" t="s">
         <v>17</v>
@@ -29761,14 +29755,14 @@
       </c>
       <c r="B734" t="str">
         <f>_xlfn.XLOOKUP(K734,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C734">
         <v>74107.170601141202</v>
       </c>
       <c r="D734" t="str">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-onNL_SW</v>
+        <v>ofNL_PA-onNL_W</v>
       </c>
       <c r="J734" t="s">
         <v>18</v>
@@ -30029,16 +30023,16 @@
         <f>_xlfn.XLOOKUP(J743,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B743" t="e">
+      <c r="B743">
         <f>_xlfn.XLOOKUP(K743,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C743">
         <v>112141.970857345</v>
       </c>
-      <c r="D743" t="e">
+      <c r="D743" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J743" t="s">
         <v>18</v>
@@ -30056,16 +30050,16 @@
         <f>_xlfn.XLOOKUP(J744,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B744" t="e">
+      <c r="B744">
         <f>_xlfn.XLOOKUP(K744,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C744">
         <v>207918.26174095599</v>
       </c>
-      <c r="D744" t="e">
+      <c r="D744" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J744" t="s">
         <v>18</v>
@@ -30083,16 +30077,16 @@
         <f>_xlfn.XLOOKUP(J745,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B745" t="e">
+      <c r="B745">
         <f>_xlfn.XLOOKUP(K745,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C745">
         <v>90594.350647529296</v>
       </c>
-      <c r="D745" t="e">
+      <c r="D745" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J745" t="s">
         <v>18</v>
@@ -30110,16 +30104,16 @@
         <f>_xlfn.XLOOKUP(J746,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B746" t="e">
+      <c r="B746">
         <f>_xlfn.XLOOKUP(K746,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C746">
         <v>80398.105283812198</v>
       </c>
-      <c r="D746" t="e">
+      <c r="D746" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J746" t="s">
         <v>18</v>
@@ -30137,16 +30131,16 @@
         <f>_xlfn.XLOOKUP(J747,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B747" t="e">
+      <c r="B747">
         <f>_xlfn.XLOOKUP(K747,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C747">
         <v>55499.9787762825</v>
       </c>
-      <c r="D747" t="e">
+      <c r="D747" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J747" t="s">
         <v>18</v>
@@ -30164,16 +30158,16 @@
         <f>_xlfn.XLOOKUP(J748,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B748" t="e">
+      <c r="B748">
         <f>_xlfn.XLOOKUP(K748,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C748">
         <v>40196.7046414453</v>
       </c>
-      <c r="D748" t="e">
+      <c r="D748" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J748" t="s">
         <v>18</v>
@@ -30191,16 +30185,16 @@
         <f>_xlfn.XLOOKUP(J749,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B749" t="e">
+      <c r="B749">
         <f>_xlfn.XLOOKUP(K749,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C749">
         <v>185414.49559926</v>
       </c>
-      <c r="D749" t="e">
+      <c r="D749" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J749" t="s">
         <v>18</v>
@@ -30760,14 +30754,14 @@
       </c>
       <c r="B768" t="str">
         <f>_xlfn.XLOOKUP(K768,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C768">
         <v>59062.457639507797</v>
       </c>
       <c r="D768" t="str">
         <f t="shared" si="22"/>
-        <v>ofNL_LU-onNL_SW</v>
+        <v>ofNL_LU-onNL_W</v>
       </c>
       <c r="J768" t="s">
         <v>19</v>
@@ -31028,16 +31022,16 @@
         <f>_xlfn.XLOOKUP(J777,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B777" t="e">
+      <c r="B777">
         <f>_xlfn.XLOOKUP(K777,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C777">
         <v>127312.61001238201</v>
       </c>
-      <c r="D777" t="e">
+      <c r="D777" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J777" t="s">
         <v>19</v>
@@ -31055,16 +31049,16 @@
         <f>_xlfn.XLOOKUP(J778,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B778" t="e">
+      <c r="B778">
         <f>_xlfn.XLOOKUP(K778,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C778">
         <v>228140.883614928</v>
       </c>
-      <c r="D778" t="e">
+      <c r="D778" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J778" t="s">
         <v>19</v>
@@ -31082,16 +31076,16 @@
         <f>_xlfn.XLOOKUP(J779,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B779" t="e">
+      <c r="B779">
         <f>_xlfn.XLOOKUP(K779,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C779">
         <v>101960.04117606601</v>
       </c>
-      <c r="D779" t="e">
+      <c r="D779" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J779" t="s">
         <v>19</v>
@@ -31109,16 +31103,16 @@
         <f>_xlfn.XLOOKUP(J780,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B780" t="e">
+      <c r="B780">
         <f>_xlfn.XLOOKUP(K780,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C780">
         <v>99859.301224056602</v>
       </c>
-      <c r="D780" t="e">
+      <c r="D780" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J780" t="s">
         <v>19</v>
@@ -31136,16 +31130,16 @@
         <f>_xlfn.XLOOKUP(J781,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B781" t="e">
+      <c r="B781">
         <f>_xlfn.XLOOKUP(K781,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C781">
         <v>73867.988454154605</v>
       </c>
-      <c r="D781" t="e">
+      <c r="D781" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J781" t="s">
         <v>19</v>
@@ -31163,16 +31157,16 @@
         <f>_xlfn.XLOOKUP(J782,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B782" t="e">
+      <c r="B782">
         <f>_xlfn.XLOOKUP(K782,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C782">
         <v>39737.196057303299</v>
       </c>
-      <c r="D782" t="e">
+      <c r="D782" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J782" t="s">
         <v>19</v>
@@ -31190,16 +31184,16 @@
         <f>_xlfn.XLOOKUP(J783,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B783" t="e">
+      <c r="B783">
         <f>_xlfn.XLOOKUP(K783,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C783">
         <v>205188.85733652601</v>
       </c>
-      <c r="D783" t="e">
+      <c r="D783" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J783" t="s">
         <v>19</v>
@@ -31759,14 +31753,14 @@
       </c>
       <c r="B802" t="str">
         <f>_xlfn.XLOOKUP(K802,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C802">
         <v>241071.005421938</v>
       </c>
       <c r="D802" t="str">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-onNL_SW</v>
+        <v>ofNL_GE_B-onNL_W</v>
       </c>
       <c r="J802" t="s">
         <v>20</v>
@@ -32027,16 +32021,16 @@
         <f>_xlfn.XLOOKUP(J811,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B811" t="e">
+      <c r="B811">
         <f>_xlfn.XLOOKUP(K811,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C811">
         <v>186958.683198082</v>
       </c>
-      <c r="D811" t="e">
+      <c r="D811" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="J811" t="s">
         <v>20</v>
@@ -32054,16 +32048,16 @@
         <f>_xlfn.XLOOKUP(J812,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B812" t="e">
+      <c r="B812">
         <f>_xlfn.XLOOKUP(K812,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C812">
         <v>33207.696143719601</v>
       </c>
-      <c r="D812" t="e">
+      <c r="D812" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="J812" t="s">
         <v>20</v>
@@ -32081,16 +32075,16 @@
         <f>_xlfn.XLOOKUP(J813,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B813" t="e">
+      <c r="B813">
         <f>_xlfn.XLOOKUP(K813,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C813">
         <v>207280.892903742</v>
       </c>
-      <c r="D813" t="e">
+      <c r="D813" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="J813" t="s">
         <v>20</v>
@@ -32108,16 +32102,16 @@
         <f>_xlfn.XLOOKUP(J814,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B814" t="e">
+      <c r="B814">
         <f>_xlfn.XLOOKUP(K814,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C814">
         <v>149850.477523804</v>
       </c>
-      <c r="D814" t="e">
+      <c r="D814" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="J814" t="s">
         <v>20</v>
@@ -32135,16 +32129,16 @@
         <f>_xlfn.XLOOKUP(J815,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B815" t="e">
+      <c r="B815">
         <f>_xlfn.XLOOKUP(K815,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C815">
         <v>169473.28595257201</v>
       </c>
-      <c r="D815" t="e">
+      <c r="D815" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="J815" t="s">
         <v>20</v>
@@ -32162,16 +32156,16 @@
         <f>_xlfn.XLOOKUP(J816,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B816" t="e">
+      <c r="B816">
         <f>_xlfn.XLOOKUP(K816,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C816">
         <v>222672.535046134</v>
       </c>
-      <c r="D816" t="e">
+      <c r="D816" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="J816" t="s">
         <v>20</v>
@@ -32189,16 +32183,16 @@
         <f>_xlfn.XLOOKUP(J817,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B817" t="e">
+      <c r="B817">
         <f>_xlfn.XLOOKUP(K817,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C817">
         <v>15916.0111028014</v>
       </c>
-      <c r="D817" t="e">
+      <c r="D817" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="J817" t="s">
         <v>20</v>
@@ -32758,14 +32752,14 @@
       </c>
       <c r="B836" t="str">
         <f>_xlfn.XLOOKUP(K836,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C836">
         <v>245151.86942224801</v>
       </c>
       <c r="D836" t="str">
         <f t="shared" si="26"/>
-        <v>ofNL_GE_A-onNL_SW</v>
+        <v>ofNL_GE_A-onNL_W</v>
       </c>
       <c r="J836" t="s">
         <v>21</v>
@@ -33026,16 +33020,16 @@
         <f>_xlfn.XLOOKUP(J845,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B845" t="e">
+      <c r="B845">
         <f>_xlfn.XLOOKUP(K845,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C845">
         <v>196785.62922179699</v>
       </c>
-      <c r="D845" t="e">
+      <c r="D845" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J845" t="s">
         <v>21</v>
@@ -33053,16 +33047,16 @@
         <f>_xlfn.XLOOKUP(J846,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B846" t="e">
+      <c r="B846">
         <f>_xlfn.XLOOKUP(K846,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C846">
         <v>39986.146991542599</v>
       </c>
-      <c r="D846" t="e">
+      <c r="D846" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J846" t="s">
         <v>21</v>
@@ -33080,16 +33074,16 @@
         <f>_xlfn.XLOOKUP(J847,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B847" t="e">
+      <c r="B847">
         <f>_xlfn.XLOOKUP(K847,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C847">
         <v>216563.075744929</v>
       </c>
-      <c r="D847" t="e">
+      <c r="D847" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J847" t="s">
         <v>21</v>
@@ -33107,16 +33101,16 @@
         <f>_xlfn.XLOOKUP(J848,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B848" t="e">
+      <c r="B848">
         <f>_xlfn.XLOOKUP(K848,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C848">
         <v>158872.27340384701</v>
       </c>
-      <c r="D848" t="e">
+      <c r="D848" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J848" t="s">
         <v>21</v>
@@ -33134,16 +33128,16 @@
         <f>_xlfn.XLOOKUP(J849,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B849" t="e">
+      <c r="B849">
         <f>_xlfn.XLOOKUP(K849,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C849">
         <v>177840.419469363</v>
       </c>
-      <c r="D849" t="e">
+      <c r="D849" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J849" t="s">
         <v>21</v>
@@ -33161,16 +33155,16 @@
         <f>_xlfn.XLOOKUP(J850,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B850" t="e">
+      <c r="B850">
         <f>_xlfn.XLOOKUP(K850,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C850">
         <v>230177.59352938199</v>
       </c>
-      <c r="D850" t="e">
+      <c r="D850" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J850" t="s">
         <v>21</v>
@@ -33188,16 +33182,16 @@
         <f>_xlfn.XLOOKUP(J851,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B851" t="e">
+      <c r="B851">
         <f>_xlfn.XLOOKUP(K851,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C851">
         <v>26233.9999168141</v>
       </c>
-      <c r="D851" t="e">
+      <c r="D851" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J851" t="s">
         <v>21</v>
@@ -33757,14 +33751,14 @@
       </c>
       <c r="B870" t="str">
         <f>_xlfn.XLOOKUP(K870,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C870">
         <v>85584.997692026605</v>
       </c>
       <c r="D870" t="str">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-onNL_SW</v>
+        <v>ofNL_KN-onNL_W</v>
       </c>
       <c r="J870" t="s">
         <v>24</v>
@@ -34025,16 +34019,16 @@
         <f>_xlfn.XLOOKUP(J879,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B879" t="e">
+      <c r="B879">
         <f>_xlfn.XLOOKUP(K879,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C879">
         <v>102908.965064192</v>
       </c>
-      <c r="D879" t="e">
+      <c r="D879" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J879" t="s">
         <v>24</v>
@@ -34052,16 +34046,16 @@
         <f>_xlfn.XLOOKUP(J880,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B880" t="e">
+      <c r="B880">
         <f>_xlfn.XLOOKUP(K880,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C880">
         <v>194641.69900040299</v>
       </c>
-      <c r="D880" t="e">
+      <c r="D880" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J880" t="s">
         <v>24</v>
@@ -34079,16 +34073,16 @@
         <f>_xlfn.XLOOKUP(J881,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B881" t="e">
+      <c r="B881">
         <f>_xlfn.XLOOKUP(K881,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C881">
         <v>84739.171660463806</v>
       </c>
-      <c r="D881" t="e">
+      <c r="D881" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J881" t="s">
         <v>24</v>
@@ -34106,16 +34100,16 @@
         <f>_xlfn.XLOOKUP(J882,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B882" t="e">
+      <c r="B882">
         <f>_xlfn.XLOOKUP(K882,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C882">
         <v>67767.381988453402</v>
       </c>
-      <c r="D882" t="e">
+      <c r="D882" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J882" t="s">
         <v>24</v>
@@ -34133,16 +34127,16 @@
         <f>_xlfn.XLOOKUP(J883,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B883" t="e">
+      <c r="B883">
         <f>_xlfn.XLOOKUP(K883,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C883">
         <v>44278.276109139399</v>
       </c>
-      <c r="D883" t="e">
+      <c r="D883" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J883" t="s">
         <v>24</v>
@@ -34160,16 +34154,16 @@
         <f>_xlfn.XLOOKUP(J884,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B884" t="e">
+      <c r="B884">
         <f>_xlfn.XLOOKUP(K884,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C884">
         <v>45732.373151166699</v>
       </c>
-      <c r="D884" t="e">
+      <c r="D884" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J884" t="s">
         <v>24</v>
@@ -34187,16 +34181,16 @@
         <f>_xlfn.XLOOKUP(J885,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B885" t="e">
+      <c r="B885">
         <f>_xlfn.XLOOKUP(K885,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C885">
         <v>172529.32580863399</v>
       </c>
-      <c r="D885" t="e">
+      <c r="D885" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J885" t="s">
         <v>24</v>
@@ -34756,14 +34750,14 @@
       </c>
       <c r="B904" t="str">
         <f>_xlfn.XLOOKUP(K904,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C904">
         <v>101471.540622548</v>
       </c>
       <c r="D904" t="str">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_A-onNL_SW</v>
+        <v>ofNL_KW_A-onNL_W</v>
       </c>
       <c r="J904" t="s">
         <v>25</v>
@@ -35024,16 +35018,16 @@
         <f>_xlfn.XLOOKUP(J913,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B913" t="e">
+      <c r="B913">
         <f>_xlfn.XLOOKUP(K913,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C913">
         <v>85063.7874553367</v>
       </c>
-      <c r="D913" t="e">
+      <c r="D913" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J913" t="s">
         <v>25</v>
@@ -35051,16 +35045,16 @@
         <f>_xlfn.XLOOKUP(J914,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B914" t="e">
+      <c r="B914">
         <f>_xlfn.XLOOKUP(K914,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C914">
         <v>208271.10804091301</v>
       </c>
-      <c r="D914" t="e">
+      <c r="D914" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J914" t="s">
         <v>25</v>
@@ -35078,16 +35072,16 @@
         <f>_xlfn.XLOOKUP(J915,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B915" t="e">
+      <c r="B915">
         <f>_xlfn.XLOOKUP(K915,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C915">
         <v>59967.137730923103</v>
       </c>
-      <c r="D915" t="e">
+      <c r="D915" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J915" t="s">
         <v>25</v>
@@ -35105,16 +35099,16 @@
         <f>_xlfn.XLOOKUP(J916,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B916" t="e">
+      <c r="B916">
         <f>_xlfn.XLOOKUP(K916,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C916">
         <v>64805.814007759604</v>
       </c>
-      <c r="D916" t="e">
+      <c r="D916" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J916" t="s">
         <v>25</v>
@@ -35132,16 +35126,16 @@
         <f>_xlfn.XLOOKUP(J917,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B917" t="e">
+      <c r="B917">
         <f>_xlfn.XLOOKUP(K917,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C917">
         <v>37529.695058487298</v>
       </c>
-      <c r="D917" t="e">
+      <c r="D917" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J917" t="s">
         <v>25</v>
@@ -35159,16 +35153,16 @@
         <f>_xlfn.XLOOKUP(J918,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B918" t="e">
+      <c r="B918">
         <f>_xlfn.XLOOKUP(K918,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C918">
         <v>22317.787535432199</v>
       </c>
-      <c r="D918" t="e">
+      <c r="D918" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J918" t="s">
         <v>25</v>
@@ -35186,16 +35180,16 @@
         <f>_xlfn.XLOOKUP(J919,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B919" t="e">
+      <c r="B919">
         <f>_xlfn.XLOOKUP(K919,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C919">
         <v>188771.502623098</v>
       </c>
-      <c r="D919" t="e">
+      <c r="D919" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J919" t="s">
         <v>25</v>
@@ -35755,14 +35749,14 @@
       </c>
       <c r="B938" t="str">
         <f>_xlfn.XLOOKUP(K938,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C938">
         <v>98835.658944315393</v>
       </c>
       <c r="D938" t="str">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_B-onNL_SW</v>
+        <v>ofNL_KW_B-onNL_W</v>
       </c>
       <c r="J938" t="s">
         <v>26</v>
@@ -36023,16 +36017,16 @@
         <f>_xlfn.XLOOKUP(J947,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B947" t="e">
+      <c r="B947">
         <f>_xlfn.XLOOKUP(K947,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C947">
         <v>91079.865656721697</v>
       </c>
-      <c r="D947" t="e">
+      <c r="D947" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J947" t="s">
         <v>26</v>
@@ -36050,16 +36044,16 @@
         <f>_xlfn.XLOOKUP(J948,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B948" t="e">
+      <c r="B948">
         <f>_xlfn.XLOOKUP(K948,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C948">
         <v>220186.54900412701</v>
       </c>
-      <c r="D948" t="e">
+      <c r="D948" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J948" t="s">
         <v>26</v>
@@ -36077,16 +36071,16 @@
         <f>_xlfn.XLOOKUP(J949,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B949" t="e">
+      <c r="B949">
         <f>_xlfn.XLOOKUP(K949,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C949">
         <v>62631.4792978271</v>
       </c>
-      <c r="D949" t="e">
+      <c r="D949" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J949" t="s">
         <v>26</v>
@@ -36104,16 +36098,16 @@
         <f>_xlfn.XLOOKUP(J950,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B950" t="e">
+      <c r="B950">
         <f>_xlfn.XLOOKUP(K950,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C950">
         <v>75641.988550162103</v>
       </c>
-      <c r="D950" t="e">
+      <c r="D950" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J950" t="s">
         <v>26</v>
@@ -36131,16 +36125,16 @@
         <f>_xlfn.XLOOKUP(J951,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B951" t="e">
+      <c r="B951">
         <f>_xlfn.XLOOKUP(K951,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C951">
         <v>48575.670664600199</v>
       </c>
-      <c r="D951" t="e">
+      <c r="D951" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J951" t="s">
         <v>26</v>
@@ -36158,16 +36152,16 @@
         <f>_xlfn.XLOOKUP(J952,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B952" t="e">
+      <c r="B952">
         <f>_xlfn.XLOOKUP(K952,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C952">
         <v>10424.166929765899</v>
       </c>
-      <c r="D952" t="e">
+      <c r="D952" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J952" t="s">
         <v>26</v>
@@ -36185,16 +36179,16 @@
         <f>_xlfn.XLOOKUP(J953,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B953" t="e">
+      <c r="B953">
         <f>_xlfn.XLOOKUP(K953,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C953">
         <v>200702.858860924</v>
       </c>
-      <c r="D953" t="e">
+      <c r="D953" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J953" t="s">
         <v>26</v>
@@ -36754,7 +36748,7 @@
       </c>
       <c r="B972" t="str">
         <f>_xlfn.XLOOKUP(K972,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C972">
         <v>185717.44992658001</v>
@@ -37052,9 +37046,9 @@
         <f>_xlfn.XLOOKUP(J982,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B982" t="e">
+      <c r="B982">
         <f>_xlfn.XLOOKUP(K982,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C982">
         <v>180507.208807733</v>
@@ -37079,9 +37073,9 @@
         <f>_xlfn.XLOOKUP(J983,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B983" t="e">
+      <c r="B983">
         <f>_xlfn.XLOOKUP(K983,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C983">
         <v>34818.212394749302</v>
@@ -37106,9 +37100,9 @@
         <f>_xlfn.XLOOKUP(J984,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B984" t="e">
+      <c r="B984">
         <f>_xlfn.XLOOKUP(K984,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C984">
         <v>50387.045437731802</v>
@@ -37133,9 +37127,9 @@
         <f>_xlfn.XLOOKUP(J985,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B985" t="e">
+      <c r="B985">
         <f>_xlfn.XLOOKUP(K985,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C985">
         <v>59887.816452013598</v>
@@ -37160,9 +37154,9 @@
         <f>_xlfn.XLOOKUP(J986,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B986" t="e">
+      <c r="B986">
         <f>_xlfn.XLOOKUP(K986,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C986">
         <v>98223.784172986198</v>
@@ -37187,9 +37181,9 @@
         <f>_xlfn.XLOOKUP(J987,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B987" t="e">
+      <c r="B987">
         <f>_xlfn.XLOOKUP(K987,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C987">
         <v>171671.47373767299</v>
@@ -37756,7 +37750,7 @@
       </c>
       <c r="B1006" t="str">
         <f>_xlfn.XLOOKUP(K1006,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1006">
         <v>260754.08906105699</v>
@@ -38054,9 +38048,9 @@
         <f>_xlfn.XLOOKUP(J1016,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1016" t="e">
+      <c r="B1016">
         <f>_xlfn.XLOOKUP(K1016,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1016">
         <v>180507.20880773399</v>
@@ -38081,9 +38075,9 @@
         <f>_xlfn.XLOOKUP(J1017,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1017" t="e">
+      <c r="B1017">
         <f>_xlfn.XLOOKUP(K1017,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1017">
         <v>205305.58672767601</v>
@@ -38108,9 +38102,9 @@
         <f>_xlfn.XLOOKUP(J1018,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1018" t="e">
+      <c r="B1018">
         <f>_xlfn.XLOOKUP(K1018,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1018">
         <v>150889.363264735</v>
@@ -38135,9 +38129,9 @@
         <f>_xlfn.XLOOKUP(J1019,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1019" t="e">
+      <c r="B1019">
         <f>_xlfn.XLOOKUP(K1019,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1019">
         <v>173985.20458849001</v>
@@ -38162,9 +38156,9 @@
         <f>_xlfn.XLOOKUP(J1020,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1020" t="e">
+      <c r="B1020">
         <f>_xlfn.XLOOKUP(K1020,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1020">
         <v>230588.596779532</v>
@@ -38189,9 +38183,9 @@
         <f>_xlfn.XLOOKUP(J1021,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1021" t="e">
+      <c r="B1021">
         <f>_xlfn.XLOOKUP(K1021,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1021">
         <v>28292.533497465502</v>
@@ -38758,7 +38752,7 @@
       </c>
       <c r="B1040" t="str">
         <f>_xlfn.XLOOKUP(K1040,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1040">
         <v>161006.521564044</v>
@@ -39056,9 +39050,9 @@
         <f>_xlfn.XLOOKUP(J1050,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1050" t="e">
+      <c r="B1050">
         <f>_xlfn.XLOOKUP(K1050,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1050">
         <v>34818.212394748902</v>
@@ -39083,9 +39077,9 @@
         <f>_xlfn.XLOOKUP(J1051,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1051" t="e">
+      <c r="B1051">
         <f>_xlfn.XLOOKUP(K1051,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1051">
         <v>205305.58672767601</v>
@@ -39110,9 +39104,9 @@
         <f>_xlfn.XLOOKUP(J1052,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1052" t="e">
+      <c r="B1052">
         <f>_xlfn.XLOOKUP(K1052,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1052">
         <v>58403.493250702799</v>
@@ -39137,9 +39131,9 @@
         <f>_xlfn.XLOOKUP(J1053,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1053" t="e">
+      <c r="B1053">
         <f>_xlfn.XLOOKUP(K1053,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1053">
         <v>50571.837918178797</v>
@@ -39164,9 +39158,9 @@
         <f>_xlfn.XLOOKUP(J1054,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1054" t="e">
+      <c r="B1054">
         <f>_xlfn.XLOOKUP(K1054,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1054">
         <v>67797.181359645096</v>
@@ -39191,9 +39185,9 @@
         <f>_xlfn.XLOOKUP(J1055,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1055" t="e">
+      <c r="B1055">
         <f>_xlfn.XLOOKUP(K1055,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1055">
         <v>192813.694724364</v>
@@ -39760,7 +39754,7 @@
       </c>
       <c r="B1074" t="str">
         <f>_xlfn.XLOOKUP(K1074,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1074">
         <v>153196.85969856899</v>
@@ -40058,9 +40052,9 @@
         <f>_xlfn.XLOOKUP(J1084,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1084" t="e">
+      <c r="B1084">
         <f>_xlfn.XLOOKUP(K1084,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1084">
         <v>50387.045437731802</v>
@@ -40085,9 +40079,9 @@
         <f>_xlfn.XLOOKUP(J1085,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1085" t="e">
+      <c r="B1085">
         <f>_xlfn.XLOOKUP(K1085,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1085">
         <v>150889.363264735</v>
@@ -40112,9 +40106,9 @@
         <f>_xlfn.XLOOKUP(J1086,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1086" t="e">
+      <c r="B1086">
         <f>_xlfn.XLOOKUP(K1086,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1086">
         <v>58403.493250702901</v>
@@ -40139,9 +40133,9 @@
         <f>_xlfn.XLOOKUP(J1087,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1087" t="e">
+      <c r="B1087">
         <f>_xlfn.XLOOKUP(K1087,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1087">
         <v>27303.143066912999</v>
@@ -40166,9 +40160,9 @@
         <f>_xlfn.XLOOKUP(J1088,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1088" t="e">
+      <c r="B1088">
         <f>_xlfn.XLOOKUP(K1088,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1088">
         <v>85732.578229217295</v>
@@ -40193,9 +40187,9 @@
         <f>_xlfn.XLOOKUP(J1089,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1089" t="e">
+      <c r="B1089">
         <f>_xlfn.XLOOKUP(K1089,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1089">
         <v>135883.15121917499</v>
@@ -40762,7 +40756,7 @@
       </c>
       <c r="B1108" t="str">
         <f>_xlfn.XLOOKUP(K1108,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1108">
         <v>129470.70179263101</v>
@@ -41060,9 +41054,9 @@
         <f>_xlfn.XLOOKUP(J1118,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1118" t="e">
+      <c r="B1118">
         <f>_xlfn.XLOOKUP(K1118,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1118">
         <v>59887.816452013598</v>
@@ -41087,9 +41081,9 @@
         <f>_xlfn.XLOOKUP(J1119,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1119" t="e">
+      <c r="B1119">
         <f>_xlfn.XLOOKUP(K1119,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1119">
         <v>173985.20458849001</v>
@@ -41114,9 +41108,9 @@
         <f>_xlfn.XLOOKUP(J1120,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1120" t="e">
+      <c r="B1120">
         <f>_xlfn.XLOOKUP(K1120,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1120">
         <v>50571.837918178797</v>
@@ -41141,9 +41135,9 @@
         <f>_xlfn.XLOOKUP(J1121,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1121" t="e">
+      <c r="B1121">
         <f>_xlfn.XLOOKUP(K1121,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1121">
         <v>27303.143066912799</v>
@@ -41168,9 +41162,9 @@
         <f>_xlfn.XLOOKUP(J1122,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1122" t="e">
+      <c r="B1122">
         <f>_xlfn.XLOOKUP(K1122,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1122">
         <v>58808.814216680497</v>
@@ -41195,9 +41189,9 @@
         <f>_xlfn.XLOOKUP(J1123,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1123" t="e">
+      <c r="B1123">
         <f>_xlfn.XLOOKUP(K1123,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1123">
         <v>156529.11196884699</v>
@@ -41764,7 +41758,7 @@
       </c>
       <c r="B1142" t="str">
         <f>_xlfn.XLOOKUP(K1142,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1142">
         <v>96348.178368929497</v>
@@ -42062,9 +42056,9 @@
         <f>_xlfn.XLOOKUP(J1152,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1152" t="e">
+      <c r="B1152">
         <f>_xlfn.XLOOKUP(K1152,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1152">
         <v>98223.784172985805</v>
@@ -42089,9 +42083,9 @@
         <f>_xlfn.XLOOKUP(J1153,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1153" t="e">
+      <c r="B1153">
         <f>_xlfn.XLOOKUP(K1153,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1153">
         <v>230588.59677953101</v>
@@ -42116,9 +42110,9 @@
         <f>_xlfn.XLOOKUP(J1154,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1154" t="e">
+      <c r="B1154">
         <f>_xlfn.XLOOKUP(K1154,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1154">
         <v>67797.181359645299</v>
@@ -42143,9 +42137,9 @@
         <f>_xlfn.XLOOKUP(J1155,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1155" t="e">
+      <c r="B1155">
         <f>_xlfn.XLOOKUP(K1155,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1155">
         <v>85732.578229217805</v>
@@ -42170,9 +42164,9 @@
         <f>_xlfn.XLOOKUP(J1156,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1156" t="e">
+      <c r="B1156">
         <f>_xlfn.XLOOKUP(K1156,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1156">
         <v>58808.814216680497</v>
@@ -42197,9 +42191,9 @@
         <f>_xlfn.XLOOKUP(J1157,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1157" t="e">
+      <c r="B1157">
         <f>_xlfn.XLOOKUP(K1157,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1157">
         <v>210993.494479969</v>
@@ -42766,7 +42760,7 @@
       </c>
       <c r="B1176" t="str">
         <f>_xlfn.XLOOKUP(K1176,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1176">
         <v>234773.42443201199</v>
@@ -43064,9 +43058,9 @@
         <f>_xlfn.XLOOKUP(J1186,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1186" t="e">
+      <c r="B1186">
         <f>_xlfn.XLOOKUP(K1186,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1186">
         <v>171671.47373767401</v>
@@ -43091,9 +43085,9 @@
         <f>_xlfn.XLOOKUP(J1187,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1187" t="e">
+      <c r="B1187">
         <f>_xlfn.XLOOKUP(K1187,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1187">
         <v>28292.5334974658</v>
@@ -43118,9 +43112,9 @@
         <f>_xlfn.XLOOKUP(J1188,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1188" t="e">
+      <c r="B1188">
         <f>_xlfn.XLOOKUP(K1188,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1188">
         <v>192813.694724364</v>
@@ -43145,9 +43139,9 @@
         <f>_xlfn.XLOOKUP(J1189,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1189" t="e">
+      <c r="B1189">
         <f>_xlfn.XLOOKUP(K1189,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1189">
         <v>135883.15121917499</v>
@@ -43172,9 +43166,9 @@
         <f>_xlfn.XLOOKUP(J1190,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1190" t="e">
+      <c r="B1190">
         <f>_xlfn.XLOOKUP(K1190,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1190">
         <v>156529.11196884699</v>
@@ -43199,9 +43193,9 @@
         <f>_xlfn.XLOOKUP(J1191,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1191" t="e">
+      <c r="B1191">
         <f>_xlfn.XLOOKUP(K1191,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1191">
         <v>210993.494479969</v>
